--- a/result/log_analysis_combined_no_comma.xlsx
+++ b/result/log_analysis_combined_no_comma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I84"/>
+  <dimension ref="A1:H84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,40 +441,35 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>log_time</t>
+          <t>page_id</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>page_id</t>
+          <t>click_type</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>click_type</t>
+          <t>act_type</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>act_type</t>
+          <t>click_text</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>click_text</t>
+          <t>keys_combined</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>keys_combined</t>
+          <t>values_combined</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>values_combined</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>key_count</t>
         </is>
@@ -486,40 +481,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-06-16 14:27:33</t>
+          <t>store/main/home</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>store/main/home</t>
+          <t>상단 탭</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>상단 탭</t>
+          <t>click</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>click</t>
+          <t>홈</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>홈</t>
+          <t>channel, page_url, page_id, act_type, click_text, click_type, order, os_name</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>channel, page_url, page_id, act_type, click_text, click_type, order, os_name</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
           <t>Rround, https://store.rround.com/main/home, store/main/home, click, 홈, 상단 탭, 1, iOS</t>
         </is>
       </c>
-      <c r="I2" t="n">
+      <c r="H2" t="n">
         <v>8</v>
       </c>
     </row>
@@ -529,32 +519,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-06-16 14:27:33</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
           <t>store/main/home</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
         <is>
           <t>pageview</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>channel, page_url, referer_url, page_id, act_type, os_name</t>
+        </is>
+      </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>channel, page_url, referer_url, page_id, act_type, os_name</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
           <t>Rround, https://store.rround.com/main/home, https://store.rround.com/main/home, store/main/home, pageview, iOS</t>
         </is>
       </c>
-      <c r="I3" t="n">
+      <c r="H3" t="n">
         <v>6</v>
       </c>
     </row>
@@ -564,32 +549,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-06-16 17:19:15</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
           <t>store/favorite</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
         <is>
           <t>scroll</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>channel, page_url, page_id, act_type, scroll_rate, os_name</t>
+        </is>
+      </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>channel, page_url, page_id, act_type, scroll_rate, os_name</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
           <t>Rround, https://store.rround.com/favorite?fromMypage=true&amp;tab=goods, store/favorite, scroll, 50, iOS</t>
         </is>
       </c>
-      <c r="I4" t="n">
+      <c r="H4" t="n">
         <v>6</v>
       </c>
     </row>
@@ -599,32 +579,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-06-16 17:24:32</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
           <t>store/main/home</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
         <is>
           <t>impression</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>channel, page_url, page_id, act_type, banner_position, os_name</t>
+        </is>
+      </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>channel, page_url, page_id, act_type, banner_position, os_name</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
           <t>Rround, https://store.rround.com/main/home, store/main/home, impression, 하단 팝업 배너, iOS</t>
         </is>
       </c>
-      <c r="I5" t="n">
+      <c r="H5" t="n">
         <v>6</v>
       </c>
     </row>
@@ -634,36 +609,31 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-06-16 14:29:14</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
           <t>store/main/home</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>click</t>
+          <t>상단 배너이미지</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>상단 배너이미지</t>
+          <t>channel, page_url, page_id, act_type, click_text, banner_id, banner_url, banner_position, banner_order, os_name</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>channel, page_url, page_id, act_type, click_text, banner_id, banner_url, banner_position, banner_order, os_name</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
           <t>Rround, https://store.rround.com/main/home, store/main/home, click, 상단 배너이미지, 9, rround://store?category=web&amp;landingType=I&amp;landingUrl=https://store.rround.com/main/exhibition/9, 커머스 메인 상단 배너, 2, iOS</t>
         </is>
       </c>
-      <c r="I6" t="n">
+      <c r="H6" t="n">
         <v>10</v>
       </c>
     </row>
@@ -673,40 +643,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-06-16 14:31:17</t>
+          <t>store/category/detail/16</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>store/category/detail/16</t>
+          <t>상품</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>상품</t>
+          <t>click</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>click</t>
+          <t>트리밀데이즈 루테인 밀크씨슬 프리미엄 900mg*30캡슐</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>트리밀데이즈 루테인 밀크씨슬 프리미엄 900mg*30캡슐</t>
+          <t>channel, page_url, page_id, act_type, click_text, click_type, ctgr_depth1, prd_code, prd_name, prd_brand, prd_price_origin, prd_price_final, prd_disc_rate, prd_is_ad, os_name</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>channel, page_url, page_id, act_type, click_text, click_type, ctgr_depth1, prd_code, prd_name, prd_brand, prd_price_origin, prd_price_final, prd_disc_rate, prd_is_ad, os_name</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
           <t>Rround, https://store.rround.com/category/detail/16, store/category/detail/16, click, 트리밀데이즈 루테인 밀크씨슬 프리미엄 900mg*30캡슐, 상품, 헬스/건강식품, 5105, 트리밀데이즈 루테인 밀크씨슬 프리미엄 900mg*30캡슐, 제이앤스토어, 15900원, 10800원, 32%, F, iOS</t>
         </is>
       </c>
-      <c r="I7" t="n">
+      <c r="H7" t="n">
         <v>15</v>
       </c>
     </row>
@@ -716,37 +681,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-06-16 14:44:33</t>
+          <t>store/main/home</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>store/main/home</t>
+          <t>상품 찜하기</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>상품 찜하기</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>click</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>channel, page_url, page_id, act_type, click_type, tab_name, area_order, prd_code, prd_name, prd_brand, prd_price_origin, prd_price_final, prd_disc_rate, prd_is_ad, el_order, os_name</t>
+        </is>
+      </c>
       <c r="G8" t="inlineStr">
-        <is>
-          <t>channel, page_url, page_id, act_type, click_type, tab_name, area_order, prd_code, prd_name, prd_brand, prd_price_origin, prd_price_final, prd_disc_rate, prd_is_ad, el_order, os_name</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
         <is>
           <t>Rround, https://store.rround.com/main/home, store/main/home, click, 상품 찜하기, 식품
 , 1/7, 8038, 바비리스 버터 바 스트레이트너 ST520K, 최우수판매대리점, 59000원, 26000원, 55%, F, 5, iOS</t>
         </is>
       </c>
-      <c r="I8" t="n">
+      <c r="H8" t="n">
         <v>16</v>
       </c>
     </row>
@@ -756,32 +716,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-06-16 14:45:11</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
           <t>store/main/ranking</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
         <is>
           <t>pageview</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>channel, page_url, referer_url, page_id, act_type, os_name</t>
+        </is>
+      </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>channel, page_url, referer_url, page_id, act_type, os_name</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
           <t>Rround, https://store.rround.com/main/ranking, https://store.rround.com/main/home, store/main/ranking, pageview, iOS</t>
         </is>
       </c>
-      <c r="I9" t="n">
+      <c r="H9" t="n">
         <v>6</v>
       </c>
     </row>
@@ -791,32 +746,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-06-16 14:46:44</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
           <t>store/main/ranking</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
         <is>
           <t>scroll</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>channel, page_url, page_id, act_type, area_name, os_name</t>
+        </is>
+      </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>channel, page_url, page_id, act_type, area_name, os_name</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
           <t>Rround, https://store.rround.com/main/ranking, store/main/ranking, scroll, 카테고리, iOS</t>
         </is>
       </c>
-      <c r="I10" t="n">
+      <c r="H10" t="n">
         <v>6</v>
       </c>
     </row>
@@ -826,36 +776,31 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-06-16 14:47:20</t>
+          <t>store/main/ranking</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>store/main/ranking</t>
+          <t>인기검색어</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>인기검색어</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>click</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr"/>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>channel, page_url, page_id, act_type, click_type, os_name</t>
+        </is>
+      </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>channel, page_url, page_id, act_type, click_type, os_name</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
           <t>Rround, https://store.rround.com/main/ranking, store/main/ranking, click, 인기검색어, iOS</t>
         </is>
       </c>
-      <c r="I11" t="n">
+      <c r="H11" t="n">
         <v>6</v>
       </c>
     </row>
@@ -865,41 +810,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-06-16 14:47:56</t>
+          <t>store/main/ranking</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>store/main/ranking</t>
+          <t>카테고리 탭</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>카테고리 탭</t>
+          <t>click</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>click</t>
+          <t>홈인테리어</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>홈인테리어</t>
+          <t>channel, page_url, page_id, act_type, click_text, click_type, tab_name, os_name</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
-        <is>
-          <t>channel, page_url, page_id, act_type, click_text, click_type, tab_name, os_name</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
         <is>
           <t>Rround, https://store.rround.com/main/ranking, store/main/ranking, click, 홈인테리어, 카테고리 탭, 홈인테리어
 , iOS</t>
         </is>
       </c>
-      <c r="I12" t="n">
+      <c r="H12" t="n">
         <v>8</v>
       </c>
     </row>
@@ -909,40 +849,35 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-06-16 14:48:33</t>
+          <t>store/main/ranking</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>store/main/ranking</t>
+          <t>칩버튼</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>칩버튼</t>
+          <t>click</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>click</t>
+          <t>전체 / 전체</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>전체 / 전체</t>
+          <t>channel, page_url, page_id, act_type, click_text, click_type, os_name</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>channel, page_url, page_id, act_type, click_text, click_type, os_name</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
           <t>Rround, https://store.rround.com/main/ranking, store/main/ranking, click, 전체 / 전체, 칩버튼, iOS</t>
         </is>
       </c>
-      <c r="I13" t="n">
+      <c r="H13" t="n">
         <v>7</v>
       </c>
     </row>
@@ -952,41 +887,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-06-16 14:48:59</t>
+          <t>store/main/ranking</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>store/main/ranking</t>
+          <t>상품</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>상품</t>
+          <t>click</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>click</t>
+          <t>슈즈랙 신발정리대 20p</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>슈즈랙 신발정리대 20p</t>
+          <t>channel, page_url, page_id, act_type, click_text, click_type, tab_name, prd_code, prd_name, prd_brand, prd_price_origin, prd_price_final, prd_disc_rate, prd_review_cnt, prd_review_score, prd_is_ad, el_order, os_name</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
-        <is>
-          <t>channel, page_url, page_id, act_type, click_text, click_type, tab_name, prd_code, prd_name, prd_brand, prd_price_origin, prd_price_final, prd_disc_rate, prd_review_cnt, prd_review_score, prd_is_ad, el_order, os_name</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
         <is>
           <t>Rround, https://store.rround.com/main/ranking, store/main/ranking, click, 슈즈랙 신발정리대 20p, 상품, 홈인테리어
 , 5768, 슈즈랙 신발정리대 20p, Jeepsaram 집사람, 14000원, 11200원, 20%, 3, 5, F, 1, iOS</t>
         </is>
       </c>
-      <c r="I14" t="n">
+      <c r="H14" t="n">
         <v>18</v>
       </c>
     </row>
@@ -996,37 +926,32 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-06-16 14:49:34</t>
+          <t>store/main/ranking</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>store/main/ranking</t>
+          <t>상품 찜하기</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>상품 찜하기</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>click</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr"/>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>channel, page_url, page_id, act_type, click_type, tab_name, prd_code, prd_name, prd_brand, prd_price_origin, prd_price_final, prd_disc_rate, prd_review_cnt, prd_review_score, prd_is_ad, el_order, os_name</t>
+        </is>
+      </c>
       <c r="G15" t="inlineStr">
-        <is>
-          <t>channel, page_url, page_id, act_type, click_type, tab_name, prd_code, prd_name, prd_brand, prd_price_origin, prd_price_final, prd_disc_rate, prd_review_cnt, prd_review_score, prd_is_ad, el_order, os_name</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
         <is>
           <t>Rround, https://store.rround.com/main/ranking, store/main/ranking, click, 상품 찜하기, 홈인테리어
 , 5768, 슈즈랙 신발정리대 20p, Jeepsaram 집사람, 14000원, 11200원, 20%, 3, 5, F, 1, iOS</t>
         </is>
       </c>
-      <c r="I15" t="n">
+      <c r="H15" t="n">
         <v>17</v>
       </c>
     </row>
@@ -1036,32 +961,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-06-16 14:50:03</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
           <t>store/main/deal</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
         <is>
           <t>pageview</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>channel, page_url, referer_url, page_id, act_type, os_name</t>
+        </is>
+      </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>channel, page_url, referer_url, page_id, act_type, os_name</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
           <t>Rround, https://store.rround.com/main/deal, https://store.rround.com/main/ranking, store/main/deal, pageview, iOS</t>
         </is>
       </c>
-      <c r="I16" t="n">
+      <c r="H16" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1071,32 +991,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-06-16 14:50:04</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
           <t>store/main/deal</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
         <is>
           <t>scroll</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>channel, page_url, page_id, act_type, scroll_rate, os_name</t>
+        </is>
+      </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>channel, page_url, page_id, act_type, scroll_rate, os_name</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
           <t>Rround, https://store.rround.com/main/deal, store/main/deal, scroll, 25, iOS</t>
         </is>
       </c>
-      <c r="I17" t="n">
+      <c r="H17" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1106,40 +1021,35 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2025-06-16 14:53:35</t>
+          <t>store/main/deal</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>store/main/deal</t>
+          <t>상품</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>상품</t>
+          <t>click</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>click</t>
+          <t>[닥터포헤어] 1+1 바이오3 탈모완화 샴푸 500ml</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>[닥터포헤어] 1+1 바이오3 탈모완화 샴푸 500ml</t>
+          <t>channel, page_url, page_id, act_type, click_text, click_type, area_name, prd_code, prd_name, prd_brand, prd_price_origin, prd_disc_rate, prd_is_ad, os_name</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>channel, page_url, page_id, act_type, click_text, click_type, area_name, prd_code, prd_name, prd_brand, prd_price_origin, prd_disc_rate, prd_is_ad, os_name</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
           <t>Rround, https://store.rround.com/main/deal, store/main/deal, click, [닥터포헤어] 1+1 바이오3 탈모완화 샴푸 500ml, 상품, 무더운 여름 케어의 시작, 8070, [닥터포헤어] 1+1 바이오3 탈모완화 샴푸 500ml, 닥터포헤어, 28900원, 9%, F, iOS</t>
         </is>
       </c>
-      <c r="I18" t="n">
+      <c r="H18" t="n">
         <v>14</v>
       </c>
     </row>
@@ -1149,36 +1059,31 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2025-06-16 14:54:04</t>
+          <t>store/main/deal</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>store/main/deal</t>
+          <t>상품 찜하기</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>상품 찜하기</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>click</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr"/>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>channel, page_url, page_id, act_type, click_type, area_name, prd_code, prd_name, prd_brand, prd_price_origin, prd_disc_rate, prd_is_ad, os_name</t>
+        </is>
+      </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>channel, page_url, page_id, act_type, click_type, area_name, prd_code, prd_name, prd_brand, prd_price_origin, prd_disc_rate, prd_is_ad, os_name</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
           <t>Rround, https://store.rround.com/main/deal, store/main/deal, click, 상품 찜하기, 무더운 여름 케어의 시작, 8070, [닥터포헤어] 1+1 바이오3 탈모완화 샴푸 500ml, 닥터포헤어, 28900원, 9%, F, iOS</t>
         </is>
       </c>
-      <c r="I19" t="n">
+      <c r="H19" t="n">
         <v>13</v>
       </c>
     </row>
@@ -1188,32 +1093,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2025-06-16 14:56:13</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
           <t>store/main/exhibition</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr">
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
         <is>
           <t>scroll</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>channel, page_url, page_id, act_type, scroll_rate, os_name</t>
+        </is>
+      </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>channel, page_url, page_id, act_type, scroll_rate, os_name</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
           <t>Rround, https://store.rround.com/main/exhibition, store/main/exhibition, scroll, 25, iOS</t>
         </is>
       </c>
-      <c r="I20" t="n">
+      <c r="H20" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1223,40 +1123,35 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2025-06-16 14:56:34</t>
+          <t>store/main/exhibition/9</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>store/main/exhibition/9</t>
+          <t>기획전 리스트</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>기획전 리스트</t>
+          <t>click</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>click</t>
+          <t>너의 하루에 스며든 작은 여유</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>너의 하루에 스며든 작은 여유</t>
+          <t>channel, page_url, page_id, act_type, click_text, click_type, exh_id, exh_name, banner_id, exh_tag, os_name</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>channel, page_url, page_id, act_type, click_text, click_type, exh_id, exh_name, banner_id, exh_tag, os_name</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
           <t>Rround, https://store.rround.com/main/exhibition/9, store/main/exhibition/9, click, 너의 하루에 스며든 작은 여유, 기획전 리스트, 9, 너의 하루에 스며든 작은 여유, 9, #비스카 #주방용품# #식기 #그릇 #냄비, iOS</t>
         </is>
       </c>
-      <c r="I21" t="n">
+      <c r="H21" t="n">
         <v>11</v>
       </c>
     </row>
@@ -1266,32 +1161,27 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2025-06-16 14:56:34</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
           <t>store/main/exhibition/9</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr">
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
         <is>
           <t>pageview</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>channel, page_url, referer_url, page_id, act_type, exh_id, exh_name, os_name</t>
+        </is>
+      </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>channel, page_url, referer_url, page_id, act_type, exh_id, exh_name, os_name</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
           <t>Rround, https://store.rround.com/main/exhibition/9, https://store.rround.com/main/exhibition/9, store/main/exhibition/9, pageview, 9, 너의 하루에 스며든 작은 여유, iOS</t>
         </is>
       </c>
-      <c r="I22" t="n">
+      <c r="H22" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1301,40 +1191,35 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2025-06-16 14:57:16</t>
+          <t>store/main/exhibition</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>store/main/exhibition</t>
+          <t>더보기</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>더보기</t>
+          <t>click</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>click</t>
+          <t>기획전 구경하러 가기</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>기획전 구경하러 가기</t>
+          <t>channel, page_url, page_id, act_type, click_text, click_type, os_name</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>channel, page_url, page_id, act_type, click_text, click_type, os_name</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
           <t>Rround, https://store.rround.com/main/exhibition, store/main/exhibition, click, 기획전 구경하러 가기, 더보기, iOS</t>
         </is>
       </c>
-      <c r="I23" t="n">
+      <c r="H23" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1344,40 +1229,35 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2025-06-16 14:57:40</t>
+          <t>store/main/exhibition/9</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>store/main/exhibition/9</t>
+          <t>필터</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
           <t>필터</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>click</t>
-        </is>
-      </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>필터</t>
+          <t>channel, page_url, page_id, act_type, click_text, click_type, os_name</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>channel, page_url, page_id, act_type, click_text, click_type, os_name</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
           <t>Rround, https://store.rround.com/main/exhibition/9, store/main/exhibition/9, click, 필터, 필터, iOS</t>
         </is>
       </c>
-      <c r="I24" t="n">
+      <c r="H24" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1387,41 +1267,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2025-06-16 14:58:18</t>
+          <t>store/main/exhibition/9</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>store/main/exhibition/9</t>
+          <t>카테고리 탭</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>카테고리 탭</t>
+          <t>click</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>click</t>
+          <t>생활가전</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>생활가전</t>
+          <t>channel, page_url, page_id, act_type, click_text, click_type, tab_name, os_name</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
-        <is>
-          <t>channel, page_url, page_id, act_type, click_text, click_type, tab_name, os_name</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
         <is>
           <t>Rround, https://store.rround.com/main/exhibition/9, store/main/exhibition/9, click, 생활가전, 카테고리 탭, 생활가전
 , iOS</t>
         </is>
       </c>
-      <c r="I25" t="n">
+      <c r="H25" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1431,33 +1306,28 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2025-06-16 14:31:19</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
           <t>store/product/detail/5105</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr">
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
         <is>
           <t>pageview</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>channel, page_url, referer_url, page_id, act_type, tab_name, prd_code, prd_name, prd_brand, prd_price_origin, prd_price_final, prd_disc_rate, prd_review_cnt, prd_review_score, prd_tag, os_name</t>
+        </is>
+      </c>
       <c r="G26" t="inlineStr">
-        <is>
-          <t>channel, page_url, referer_url, page_id, act_type, tab_name, prd_code, prd_name, prd_brand, prd_price_origin, prd_price_final, prd_disc_rate, prd_review_cnt, prd_review_score, prd_tag, os_name</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
         <is>
           <t>Rround, https://store.rround.com/product/detail/5105, https://store.rround.com/product/detail/5105, store/product/detail/5105, pageview, 상품상세
 , 5105, 트리밀데이즈 루테인 밀크씨슬 프리미엄 900mg*30캡슐, 제이앤스토어, 15900원, 10800원, 32%, 0, 0, #한미양행___#CMG제약___#트리밀데이즈___#영양제___#비타민, iOS</t>
         </is>
       </c>
-      <c r="I26" t="n">
+      <c r="H26" t="n">
         <v>16</v>
       </c>
     </row>
@@ -1467,41 +1337,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2025-06-16 14:32:26</t>
+          <t>store/product/detail/5105</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>store/product/detail/5105</t>
+          <t>구매 버튼</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>구매 버튼</t>
+          <t>click</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>click</t>
+          <t>구매하기</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>구매하기</t>
+          <t>channel, page_url, page_id, act_type, click_text, click_type, tab_name, prd_code, prd_name, prd_price_origin, prd_price_final, prd_disc_rate, prd_review_cnt, prd_review_score, prd_tag, os_name</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
-        <is>
-          <t>channel, page_url, page_id, act_type, click_text, click_type, tab_name, prd_code, prd_name, prd_price_origin, prd_price_final, prd_disc_rate, prd_review_cnt, prd_review_score, prd_tag, os_name</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
         <is>
           <t>Rround, https://store.rround.com/product/detail/5105, store/product/detail/5105, click, 구매하기, 구매 버튼, 상품상세
 , 5105, 트리밀데이즈 루테인 밀크씨슬 프리미엄 900mg*30캡슐, 15900원, 10800원, 32%, 0, 0, #한미양행___#CMG제약___#트리밀데이즈___#영양제___#비타민, iOS</t>
         </is>
       </c>
-      <c r="I27" t="n">
+      <c r="H27" t="n">
         <v>16</v>
       </c>
     </row>
@@ -1511,32 +1376,27 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2025-06-16 14:32:49</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
           <t>store/order/payment</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr">
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
         <is>
           <t>pageview</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>channel, page_url, referer_url, page_id, act_type, prd_code, prd_name, prd_brand, total_price_origin, total_price_disc, total_price_final, total_delivery_price, use_rrpay_point, rrpay_point, os_name</t>
+        </is>
+      </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>channel, page_url, referer_url, page_id, act_type, prd_code, prd_name, prd_brand, total_price_origin, total_price_disc, total_price_final, total_delivery_price, use_rrpay_point, rrpay_point, os_name</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
           <t>Rround, https://store.rround.com/order/payment?selectedCartId=[27035], https://store.rround.com/product/detail/5105, store/order/payment, pageview, 5105, 트리밀데이즈 루테인 밀크씨슬 프리미엄 900mg*30캡슐, 제이앤스토어, 15900원, -5100원, 10800원, 0원, -0원, 51원, iOS</t>
         </is>
       </c>
-      <c r="I28" t="n">
+      <c r="H28" t="n">
         <v>15</v>
       </c>
     </row>
@@ -1546,41 +1406,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2025-06-16 14:40:32</t>
+          <t>store/product/detail/508</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>store/product/detail/508</t>
+          <t>장바구니 버튼</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>장바구니 버튼</t>
+          <t>click</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>click</t>
+          <t>장바구니 담기</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>장바구니 담기</t>
+          <t>channel, page_url, page_id, act_type, click_text, click_type, tab_name, prd_code, prd_name, prd_price_origin, prd_price_final, prd_disc_rate, prd_review_cnt, prd_review_score, prd_tag, os_name</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
-        <is>
-          <t>channel, page_url, page_id, act_type, click_text, click_type, tab_name, prd_code, prd_name, prd_price_origin, prd_price_final, prd_disc_rate, prd_review_cnt, prd_review_score, prd_tag, os_name</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
         <is>
           <t>Rround, https://store.rround.com/product/detail/508, store/product/detail/508, click, 장바구니 담기, 장바구니 버튼, 상품상세
 , 508, [코오롱제약] 알티지오메가3 멀티플러스 (1023mg*30캡슐), 70000원, 10900원, 84%, 28, 4.8, #오메가3___#알티지오메가___#코오롱제약___#식품___#영양제___#캡슐___#멀티플러스___#건강식품, iOS</t>
         </is>
       </c>
-      <c r="I29" t="n">
+      <c r="H29" t="n">
         <v>16</v>
       </c>
     </row>
@@ -1590,33 +1445,28 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2025-06-16 14:36:35</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
           <t>store/product/detail/5105</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr">
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
         <is>
           <t>pageview</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>channel, page_url, referer_url, page_id, act_type, tab_name, prd_code, prd_name, prd_brand, prd_price_origin, prd_disc_rate, prd_review_cnt, prd_review_score, prd_tag, os_name</t>
+        </is>
+      </c>
       <c r="G30" t="inlineStr">
-        <is>
-          <t>channel, page_url, referer_url, page_id, act_type, tab_name, prd_code, prd_name, prd_brand, prd_price_origin, prd_disc_rate, prd_review_cnt, prd_review_score, prd_tag, os_name</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
         <is>
           <t>Rround, https://store.rround.com/product/detail/5105, https://store.rround.com/product/detail/5105, store/product/detail/5105, pageview, 리뷰 
 , 5105, 트리밀데이즈 루테인 밀크씨슬 프리미엄 900mg*30캡슐, 제이앤스토어, 15900원, 32%, 0, 0, #한미양행___#CMG제약___#트리밀데이즈___#영양제___#비타민, iOS</t>
         </is>
       </c>
-      <c r="I30" t="n">
+      <c r="H30" t="n">
         <v>15</v>
       </c>
     </row>
@@ -1626,41 +1476,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2025-06-16 14:42:20</t>
+          <t>store/product/detail/4513</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>store/product/detail/4513</t>
+          <t>상품</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>상품</t>
+          <t>click</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>click</t>
+          <t>[코오롱제약] 알티지오메가3 멀티플러스 (1023mg*30캡슐)</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>[코오롱제약] 알티지오메가3 멀티플러스 (1023mg*30캡슐)</t>
+          <t>channel, page_url, page_id, act_type, click_text, click_type, area_name, tab_name, prd_code, prd_name, prd_brand, prd_price_origin, prd_price_final, prd_disc_rate, prd_review_cnt, prd_review_score, prd_is_ad, el_order, os_name</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
-        <is>
-          <t>channel, page_url, page_id, act_type, click_text, click_type, area_name, tab_name, prd_code, prd_name, prd_brand, prd_price_origin, prd_price_final, prd_disc_rate, prd_review_cnt, prd_review_score, prd_is_ad, el_order, os_name</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
         <is>
           <t>Rround, https://store.rround.com/product/detail/4513, store/product/detail/4513, click, [코오롱제약] 알티지오메가3 멀티플러스 (1023mg*30캡슐), 상품, 같이 둘러볼만한 다양한 스토어 상품 추천드려요, 상품상세
 , 508, [코오롱제약] 알티지오메가3 멀티플러스 (1023mg*30캡슐), BIZLINE, 70000원, 10900원, 84%, 28, 4.8, F, 2, iOS</t>
         </is>
       </c>
-      <c r="I31" t="n">
+      <c r="H31" t="n">
         <v>19</v>
       </c>
     </row>
@@ -1670,37 +1515,32 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2025-06-16 14:32:11</t>
+          <t>store/product/detail/5105</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>store/product/detail/5105</t>
+          <t>상품 찜하기</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>상품 찜하기</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>click</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr"/>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>channel, page_url, page_id, act_type, click_type, tab_name, prd_code, prd_name, prd_price_origin, prd_price_final, prd_disc_rate, prd_review_cnt, prd_review_score, prd_tag, os_name</t>
+        </is>
+      </c>
       <c r="G32" t="inlineStr">
-        <is>
-          <t>channel, page_url, page_id, act_type, click_type, tab_name, prd_code, prd_name, prd_price_origin, prd_price_final, prd_disc_rate, prd_review_cnt, prd_review_score, prd_tag, os_name</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
         <is>
           <t>Rround, https://store.rround.com/product/detail/5105, store/product/detail/5105, click, 상품 찜하기, 상품상세
 , 5105, 트리밀데이즈 루테인 밀크씨슬 프리미엄 900mg*30캡슐, 15900원, 10800원, 32%, 0, 0, #한미양행___#CMG제약___#트리밀데이즈___#영양제___#비타민, iOS</t>
         </is>
       </c>
-      <c r="I32" t="n">
+      <c r="H32" t="n">
         <v>15</v>
       </c>
     </row>
@@ -1710,36 +1550,31 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2025-06-16 14:34:30</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
           <t>store/store/jncorp</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>click</t>
+          <t>제이앤스토어관심 고객0</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>제이앤스토어관심 고객0</t>
+          <t>channel, page_url, page_id, act_type, click_text, area_name, store_id, store_name, os_name</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>channel, page_url, page_id, act_type, click_text, area_name, store_id, store_name, os_name</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
           <t>Rround, https://store.rround.com/store/jncorp, store/store/jncorp, click, 제이앤스토어관심 고객0, 라운드에서 지금 추천하는 스토어, jncorp, 제이앤스토어, iOS</t>
         </is>
       </c>
-      <c r="I33" t="n">
+      <c r="H33" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1749,37 +1584,32 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2025-06-16 14:40:01</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
           <t>store/product/detail/508</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>click</t>
+          <t>리뷰 사진</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>리뷰 사진</t>
+          <t>channel, page_url, page_id, act_type, click_text, tab_name, prd_code, prd_name, prd_price_origin, prd_price_final, prd_disc_rate, prd_review_cnt, prd_review_score, prd_tag, os_name</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
-        <is>
-          <t>channel, page_url, page_id, act_type, click_text, tab_name, prd_code, prd_name, prd_price_origin, prd_price_final, prd_disc_rate, prd_review_cnt, prd_review_score, prd_tag, os_name</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
         <is>
           <t>Rround, https://store.rround.com/product/detail/508, store/product/detail/508, click, 리뷰 사진, 상품상세
 , 508, [코오롱제약] 알티지오메가3 멀티플러스 (1023mg*30캡슐), 70000원, 10900원, 84%, 28, 4.8, #오메가3___#알티지오메가___#코오롱제약___#식품___#영양제___#캡슐___#멀티플러스___#건강식품, iOS</t>
         </is>
       </c>
-      <c r="I34" t="n">
+      <c r="H34" t="n">
         <v>15</v>
       </c>
     </row>
@@ -1789,41 +1619,36 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2025-06-16 14:38:38</t>
+          <t>store/product/detail/508</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>store/product/detail/508</t>
+          <t>리뷰</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>리뷰</t>
+          <t>click</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>click</t>
+          <t>리뷰 이미지 1</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>리뷰 이미지 1</t>
+          <t>channel, page_url, page_id, act_type, click_text, click_type, area_name, tab_name, prd_code, prd_name, prd_price_origin, prd_price_final, prd_disc_rate, prd_review_score, prd_tag, os_name</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
-        <is>
-          <t>channel, page_url, page_id, act_type, click_text, click_type, area_name, tab_name, prd_code, prd_name, prd_price_origin, prd_price_final, prd_disc_rate, prd_review_score, prd_tag, os_name</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
         <is>
           <t>Rround, https://store.rround.com/product/detail/508, store/product/detail/508, click, 리뷰 이미지 1, 리뷰, 전체 리뷰, 리뷰 
 , 508, [코오롱제약] 알티지오메가3 멀티플러스 (1023mg*30캡슐), 70000원, 10900원, 84%, 5, #오메가3___#알티지오메가___#코오롱제약___#식품___#영양제___#캡슐___#멀티플러스___#건강식품, iOS</t>
         </is>
       </c>
-      <c r="I35" t="n">
+      <c r="H35" t="n">
         <v>16</v>
       </c>
     </row>
@@ -1833,37 +1658,32 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2025-06-16 16:38:47</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
           <t>store/product/detail/8038</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr"/>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>click</t>
+          <t>상품 문의 작성하기</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>상품 문의 작성하기</t>
+          <t>channel, page_url, page_id, act_type, click_text, tab_name, prd_code, prd_name, prd_price_origin, prd_price_final, prd_disc_rate, prd_review_cnt, prd_review_score, prd_tag, os_name</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
-        <is>
-          <t>channel, page_url, page_id, act_type, click_text, tab_name, prd_code, prd_name, prd_price_origin, prd_price_final, prd_disc_rate, prd_review_cnt, prd_review_score, prd_tag, os_name</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
         <is>
           <t>Rround, https://store.rround.com/product/detail/8038, store/product/detail/8038, click, 상품 문의 작성하기, 상품문의 
 , 8038, 바비리스 버터 바 스트레이트너 ST520K, 59000원, 26000원, 55%, 0, 0, #고데기___#고대기___#여행용고데기___#미용실고데기___#뿌리볼륨고데기___#가벼운고데기___#스트레이트너___#매직기___#바비리스고데기___#웨이브고데기___#온도조절고데기, iOS</t>
         </is>
       </c>
-      <c r="I36" t="n">
+      <c r="H36" t="n">
         <v>15</v>
       </c>
     </row>
@@ -1873,32 +1693,27 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2025-06-16 16:39:10</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
           <t>store/order/cart</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr">
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr">
         <is>
           <t>pageview</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>channel, page_url, referer_url, page_id, act_type, prd_code, os_name</t>
+        </is>
+      </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>channel, page_url, referer_url, page_id, act_type, prd_code, os_name</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
           <t>Rround, https://store.rround.com/order/cart, https://store.rround.com/product/detail/8038, store/order/cart, pageview, 508, iOS</t>
         </is>
       </c>
-      <c r="I37" t="n">
+      <c r="H37" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1908,40 +1723,35 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2025-06-16 16:44:04</t>
+          <t>store/order/cart</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>store/order/cart</t>
+          <t>구매 버튼</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>구매 버튼</t>
+          <t>click</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>click</t>
+          <t>48200원 구매하기</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>48200원 구매하기</t>
+          <t>channel, page_url, page_id, act_type, click_text, click_type, prd_code, prd_name, prd_brand, prd_price_final, delivery_price, total_price_origin, total_price_disc, total_price_final, total_delivery_price, os_name</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>channel, page_url, page_id, act_type, click_text, click_type, prd_code, prd_name, prd_brand, prd_price_final, delivery_price, total_price_origin, total_price_disc, total_price_final, total_delivery_price, os_name</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
           <t>Rround, https://store.rround.com/order/cart, store/order/cart, click, 48200원 구매하기, 구매 버튼, 6896___6897, [비타그램] 말랑말랑 보들 좌욕기 VG-PB0823___[비타그램] 면황토 아로마 냉온 찜질팩 3종세트 (허리/다용도사각/목어깨), 진인프라___진인프라, 9800원___38400원, 0원, 70000원, -21800원, 48200원, 0원, iOS</t>
         </is>
       </c>
-      <c r="I38" t="n">
+      <c r="H38" t="n">
         <v>16</v>
       </c>
     </row>
@@ -1951,40 +1761,35 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2025-06-16 16:43:16</t>
+          <t>store/order/cart</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>store/order/cart</t>
+          <t>상품</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>상품</t>
+          <t>click</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>click</t>
+          <t>[비타그램] 면황토 아로마 냉온 찜질팩 3종세트 (허리/다용도사각/목어깨)</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>[비타그램] 면황토 아로마 냉온 찜질팩 3종세트 (허리/다용도사각/목어깨)</t>
+          <t>channel, page_url, page_id, act_type, click_text, click_type, prd_code, prd_name, prd_brand, prd_price_origin, prd_price_final, prd_disc_rate, prd_is_ad, os_name</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>channel, page_url, page_id, act_type, click_text, click_type, prd_code, prd_name, prd_brand, prd_price_origin, prd_price_final, prd_disc_rate, prd_is_ad, os_name</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
           <t>Rround, https://store.rround.com/order/cart, store/order/cart, click, [비타그램] 면황토 아로마 냉온 찜질팩 3종세트 (허리/다용도사각/목어깨), 상품, 6897, [비타그램] 면황토 아로마 냉온 찜질팩 3종세트 (허리/다용도사각/목어깨), 진인프라, 50000원, 38400원, 23%, F, iOS</t>
         </is>
       </c>
-      <c r="I39" t="n">
+      <c r="H39" t="n">
         <v>14</v>
       </c>
     </row>
@@ -1994,36 +1799,31 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2025-06-16 16:43:08</t>
+          <t>store/order/cart</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>store/order/cart</t>
+          <t>상품 찜하기</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>상품 찜하기</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>click</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr"/>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>channel, page_url, page_id, act_type, click_type, prd_code, prd_name, prd_brand, prd_price_origin, prd_price_final, prd_disc_rate, prd_is_ad, os_name</t>
+        </is>
+      </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>channel, page_url, page_id, act_type, click_type, prd_code, prd_name, prd_brand, prd_price_origin, prd_price_final, prd_disc_rate, prd_is_ad, os_name</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
           <t>Rround, https://store.rround.com/order/cart, store/order/cart, click, 상품 찜하기, 6828, [테팔] 에센셜 포켓 드라이기 HV1515, MallRaon, 50000원, 23000원, 54%, F, iOS</t>
         </is>
       </c>
-      <c r="I40" t="n">
+      <c r="H40" t="n">
         <v>13</v>
       </c>
     </row>
@@ -2033,36 +1833,31 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2025-06-16 16:44:53</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
           <t>store/order/payment</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr"/>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>click</t>
+          <t>48200원 결제하기</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>48200원 결제하기</t>
+          <t>channel, page_url, page_id, act_type, click_text, prd_code, prd_brand, total_price_origin, total_price_disc, total_price_final, total_delivery_price, use_rrpay_point, rrpay_point, os_name</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>channel, page_url, page_id, act_type, click_text, prd_code, prd_brand, total_price_origin, total_price_disc, total_price_final, total_delivery_price, use_rrpay_point, rrpay_point, os_name</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
           <t>Rround, https://store.rround.com/order/payment?selectedCartId=[2757627564], store/order/payment, click, 48200원 결제하기, 6896___6897, 진인프라___진인프라, 70000원, -21800원, 48200원, 0원, -0원, 51원, iOS</t>
         </is>
       </c>
-      <c r="I41" t="n">
+      <c r="H41" t="n">
         <v>14</v>
       </c>
     </row>
@@ -2072,32 +1867,27 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2025-06-16 16:47:30</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
           <t>store/search</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr">
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr">
         <is>
           <t>pageview</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>channel, page_url, referer_url, page_id, act_type, srch_kwd, os_name</t>
+        </is>
+      </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>channel, page_url, referer_url, page_id, act_type, srch_kwd, os_name</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
           <t>Rround, https://store.rround.com/search, https://store.rround.com/main/home, store/search, pageview, 비스카 특가 구경하기!, iOS</t>
         </is>
       </c>
-      <c r="I42" t="n">
+      <c r="H42" t="n">
         <v>7</v>
       </c>
     </row>
@@ -2107,36 +1897,31 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2025-06-16 16:49:20</t>
+          <t>store/search</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>store/search</t>
+          <t>검색 아이콘</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>검색 아이콘</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>click</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr"/>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>channel, page_url, page_id, act_type, click_type, srch_kwd, srch_kwd_type, os_name</t>
+        </is>
+      </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>channel, page_url, page_id, act_type, click_type, srch_kwd, srch_kwd_type, os_name</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
           <t>Rround, https://store.rround.com/search, store/search, click, 검색 아이콘, 사과, 수동검색어, iOS</t>
         </is>
       </c>
-      <c r="I43" t="n">
+      <c r="H43" t="n">
         <v>8</v>
       </c>
     </row>
@@ -2146,40 +1931,35 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2025-06-16 16:48:57</t>
+          <t>store/search</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>store/search</t>
+          <t>추천검색어</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>추천검색어</t>
+          <t>click</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>click</t>
+          <t>마스크팩</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>마스크팩</t>
+          <t>channel, page_url, page_id, act_type, click_text, click_type, area_name, os_name</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>channel, page_url, page_id, act_type, click_text, click_type, area_name, os_name</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
           <t>Rround, https://store.rround.com/search, store/search, click, 마스크팩, 추천검색어, 추천 검색어, iOS</t>
         </is>
       </c>
-      <c r="I44" t="n">
+      <c r="H44" t="n">
         <v>8</v>
       </c>
     </row>
@@ -2189,32 +1969,27 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2025-06-16 16:49:21</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
           <t>store/search/result</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr">
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr">
         <is>
           <t>pageview</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>channel, page_url, referer_url, page_id, act_type, srch_kwd, os_name</t>
+        </is>
+      </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>channel, page_url, referer_url, page_id, act_type, srch_kwd, os_name</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
           <t>Rround, https://store.rround.com/search/result?keyword=사과, https://store.rround.com/search, store/search/result, pageview, 사과, iOS</t>
         </is>
       </c>
-      <c r="I45" t="n">
+      <c r="H45" t="n">
         <v>7</v>
       </c>
     </row>
@@ -2224,36 +1999,31 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2025-06-16 16:50:58</t>
+          <t>store/search/result</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>store/search/result</t>
+          <t>검색 아이콘</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>검색 아이콘</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>click</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr"/>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>channel, page_url, page_id, act_type, click_type, srch_kwd, srch_kwd_type, os_name</t>
+        </is>
+      </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>channel, page_url, page_id, act_type, click_type, srch_kwd, srch_kwd_type, os_name</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
           <t>Rround, https://store.rround.com/search/result?keyword=수박, store/search/result, click, 검색 아이콘, 수박, 수동검색어, iOS</t>
         </is>
       </c>
-      <c r="I46" t="n">
+      <c r="H46" t="n">
         <v>8</v>
       </c>
     </row>
@@ -2263,40 +2033,35 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2025-06-16 16:51:26</t>
+          <t>store/search/result</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>store/search/result</t>
+          <t>연관검색어</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>연관검색어</t>
+          <t>click</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>click</t>
+          <t>맛있는수박</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>맛있는수박</t>
+          <t>channel, page_url, page_id, act_type, click_text, click_type, srch_kwd, os_name</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>channel, page_url, page_id, act_type, click_text, click_type, srch_kwd, os_name</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
           <t>Rround, https://store.rround.com/search/result?keyword=맛있는수박, store/search/result, click, 맛있는수박, 연관검색어, 맛있는수박, iOS</t>
         </is>
       </c>
-      <c r="I47" t="n">
+      <c r="H47" t="n">
         <v>8</v>
       </c>
     </row>
@@ -2306,40 +2071,35 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2025-06-16 16:53:52</t>
+          <t>store/search/result</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>store/search/result</t>
+          <t>칩버튼</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>칩버튼</t>
+          <t>click</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>click</t>
+          <t>행복한하루</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>행복한하루</t>
+          <t>channel, page_url, page_id, act_type, click_text, click_type, area_name, os_name</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>channel, page_url, page_id, act_type, click_text, click_type, area_name, os_name</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
           <t>Rround, https://store.rround.com/search/result?keyword=맛있는수박, store/search/result, click, 행복한하루, 칩버튼, 라운드8H4FFH님을 위한 맞춤 정보, iOS</t>
         </is>
       </c>
-      <c r="I48" t="n">
+      <c r="H48" t="n">
         <v>8</v>
       </c>
     </row>
@@ -2349,41 +2109,36 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2025-06-16 16:50:24</t>
+          <t>store/search/result</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>store/search/result</t>
+          <t>상품</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>상품</t>
+          <t>click</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>click</t>
+          <t>[산해직송] 꿀단지 수박 고당도 정품 4kg 5kg 외</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>[산해직송] 꿀단지 수박 고당도 정품 4kg 5kg 외</t>
+          <t>channel, page_url, page_id, act_type, click_text, click_type, area_name, tab_name, prd_code, prd_name, prd_brand, prd_price_origin, prd_disc_rate, prd_is_ad, el_order, os_name</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
-        <is>
-          <t>channel, page_url, page_id, act_type, click_text, click_type, area_name, tab_name, prd_code, prd_name, prd_brand, prd_price_origin, prd_disc_rate, prd_is_ad, el_order, os_name</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
         <is>
           <t>Rround, https://store.rround.com/search/result?keyword=수박, store/search/result, click, [산해직송] 꿀단지 수박 고당도 정품 4kg 5kg 외, 상품, 라운드8H4FFH님을 위한 맞춤 정보, For you
 , 7950, [산해직송] 꿀단지 수박 고당도 정품 4kg 5kg 외, 산해직송, 14900원, 62%, F, 1, iOS</t>
         </is>
       </c>
-      <c r="I49" t="n">
+      <c r="H49" t="n">
         <v>16</v>
       </c>
     </row>
@@ -2393,37 +2148,32 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2025-06-16 16:54:37</t>
+          <t>store/search/result</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>store/search/result</t>
+          <t>상품 찜하기</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>상품 찜하기</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>click</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr"/>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>channel, page_url, page_id, act_type, click_type, area_name, tab_name, prd_code, prd_name, prd_brand, prd_price_origin, prd_disc_rate, prd_is_ad, el_order, os_name</t>
+        </is>
+      </c>
       <c r="G50" t="inlineStr">
-        <is>
-          <t>channel, page_url, page_id, act_type, click_type, area_name, tab_name, prd_code, prd_name, prd_brand, prd_price_origin, prd_disc_rate, prd_is_ad, el_order, os_name</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
         <is>
           <t>Rround, https://store.rround.com/search/result?keyword=맛있는수박, store/search/result, click, 상품 찜하기, 라운드8H4FFH님을 위한 맞춤 정보, 행복한하루
 , 2989, 산지직송 고당도 프리미엄 수박(정품), 행복한하루, 19800원, 59%, F, 2, iOS</t>
         </is>
       </c>
-      <c r="I50" t="n">
+      <c r="H50" t="n">
         <v>15</v>
       </c>
     </row>
@@ -2433,40 +2183,35 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2025-06-16 16:55:14</t>
+          <t>store/search/result</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>store/search/result</t>
+          <t>필터</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
           <t>필터</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>click</t>
-        </is>
-      </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>필터</t>
+          <t>channel, page_url, page_id, act_type, click_text, click_type, os_name</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>channel, page_url, page_id, act_type, click_text, click_type, os_name</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
           <t>Rround, https://store.rround.com/search/result?keyword=맛있는수박, store/search/result, click, 필터, 필터, iOS</t>
         </is>
       </c>
-      <c r="I51" t="n">
+      <c r="H51" t="n">
         <v>7</v>
       </c>
     </row>
@@ -2476,32 +2221,27 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2025-06-16 16:56:01</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
           <t>store/category</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr">
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr">
         <is>
           <t>pageview</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>channel, page_url, referer_url, page_id, act_type, os_name</t>
+        </is>
+      </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>channel, page_url, referer_url, page_id, act_type, os_name</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
           <t>Rround, https://store.rround.com/category, https://store.rround.com/main/home, store/category, pageview, iOS</t>
         </is>
       </c>
-      <c r="I52" t="n">
+      <c r="H52" t="n">
         <v>6</v>
       </c>
     </row>
@@ -2511,40 +2251,35 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2025-06-16 17:00:04</t>
+          <t>store/category/detail/9</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>store/category/detail/9</t>
+          <t>대카테고리</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>대카테고리</t>
+          <t>click</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>click</t>
+          <t>홈인테리어</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>홈인테리어</t>
+          <t>channel, page_url, page_id, act_type, click_text, click_type, ctgr_id, ctgr_depth1, os_name</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>channel, page_url, page_id, act_type, click_text, click_type, ctgr_id, ctgr_depth1, os_name</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
           <t>Rround, https://store.rround.com/category/detail/9, store/category/detail/9, click, 홈인테리어, 대카테고리, 9, 식품, iOS</t>
         </is>
       </c>
-      <c r="I53" t="n">
+      <c r="H53" t="n">
         <v>9</v>
       </c>
     </row>
@@ -2554,40 +2289,35 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2025-06-16 16:57:08</t>
+          <t>store/category/detail/27</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>store/category/detail/27</t>
+          <t>중카테고리</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>중카테고리</t>
+          <t>click</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>click</t>
+          <t>수납/정리</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>수납/정리</t>
+          <t>channel, page_url, page_id, act_type, click_text, click_type, ctgr_id, ctgr_depth1, ctgr_depth2, ctgr_depth3, os_name</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>channel, page_url, page_id, act_type, click_text, click_type, ctgr_id, ctgr_depth1, ctgr_depth2, ctgr_depth3, os_name</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
           <t>Rround, https://store.rround.com/category/detail/27, store/category/detail/27, click, 수납/정리, 중카테고리, 27, 식품, 수납/정리, 수납/정리, iOS</t>
         </is>
       </c>
-      <c r="I54" t="n">
+      <c r="H54" t="n">
         <v>11</v>
       </c>
     </row>
@@ -2597,32 +2327,27 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2025-06-16 17:00:04</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
           <t>store/category/detail/9</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr">
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr">
         <is>
           <t>pageview</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>channel, page_url, referer_url, page_id, act_type, ctgr_id, os_name</t>
+        </is>
+      </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>channel, page_url, referer_url, page_id, act_type, ctgr_id, os_name</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
           <t>Rround, https://store.rround.com/category/detail/9, https://store.rround.com/category, store/category/detail/9, pageview, 9, iOS</t>
         </is>
       </c>
-      <c r="I55" t="n">
+      <c r="H55" t="n">
         <v>7</v>
       </c>
     </row>
@@ -2632,40 +2357,35 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2025-06-16 17:01:20</t>
+          <t>store/category/detail/7</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>store/category/detail/7</t>
+          <t>카테고리 더보기</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
           <t>카테고리 더보기</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>click</t>
-        </is>
-      </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>카테고리 더보기</t>
+          <t>channel, page_url, page_id, act_type, click_text, click_type, ctgr_depth1, os_name</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>channel, page_url, page_id, act_type, click_text, click_type, ctgr_depth1, os_name</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
           <t>Rround, https://store.rround.com/category/detail/7, store/category/detail/7, click, 카테고리 더보기, 카테고리 더보기, 식품, iOS</t>
         </is>
       </c>
-      <c r="I56" t="n">
+      <c r="H56" t="n">
         <v>8</v>
       </c>
     </row>
@@ -2675,40 +2395,35 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2025-06-16 17:01:54</t>
+          <t>store/category/detail/7</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>store/category/detail/7</t>
+          <t>중카테고리</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>중카테고리</t>
+          <t>click</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>click</t>
+          <t>선물세트</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>선물세트</t>
+          <t>channel, page_url, page_id, act_type, click_text, click_type, ctgr_depth1, os_name</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>channel, page_url, page_id, act_type, click_text, click_type, ctgr_depth1, os_name</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
           <t>Rround, https://store.rround.com/category/detail/7, store/category/detail/7, click, 선물세트, 중카테고리, 식품, iOS</t>
         </is>
       </c>
-      <c r="I57" t="n">
+      <c r="H57" t="n">
         <v>8</v>
       </c>
     </row>
@@ -2718,33 +2433,28 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2025-06-16 17:02:14</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
           <t>store/product/detail/3703</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr">
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr">
         <is>
           <t>pageview</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>channel, page_url, referer_url, page_id, act_type, tab_name, prd_code, prd_name, prd_brand, prd_price_origin, prd_price_final, prd_disc_rate, prd_review_cnt, prd_review_score, prd_tag, os_name</t>
+        </is>
+      </c>
       <c r="G58" t="inlineStr">
-        <is>
-          <t>channel, page_url, referer_url, page_id, act_type, tab_name, prd_code, prd_name, prd_brand, prd_price_origin, prd_price_final, prd_disc_rate, prd_review_cnt, prd_review_score, prd_tag, os_name</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
         <is>
           <t>Rround, https://store.rround.com/product/detail/3703, https://store.rround.com/product/detail/641, store/product/detail/3703, pageview, 상품상세
 , 3703, [동원] 고추참치 150g x 8캔, 이지앤웰스, 22400원, 20200원, 9%, 3, 5, #동원___#식품___#캔___#고추참치___#참치___#연어___#통조림, iOS</t>
         </is>
       </c>
-      <c r="I58" t="n">
+      <c r="H58" t="n">
         <v>16</v>
       </c>
     </row>
@@ -2754,36 +2464,31 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2025-06-16 17:02:48</t>
+          <t>store/category/detail/7</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>store/category/detail/7</t>
+          <t>상품 찜하기</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>상품 찜하기</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>click</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr"/>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>channel, page_url, page_id, act_type, click_type, area_name, ctgr_depth1, prd_code, prd_name, prd_brand, prd_price_origin, prd_price_final, prd_disc_rate, prd_review_cnt, prd_review_score, prd_is_ad, os_name</t>
+        </is>
+      </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>channel, page_url, page_id, act_type, click_type, area_name, ctgr_depth1, prd_code, prd_name, prd_brand, prd_price_origin, prd_price_final, prd_disc_rate, prd_review_cnt, prd_review_score, prd_is_ad, os_name</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
           <t>Rround, https://store.rround.com/category/detail/7, store/category/detail/7, click, 상품 찜하기, 라운드8H4FFH님을 위한 추천 상품, 식품, 4665, [에브리워터] 에브리워터 2lx6팩, 이지앤웰스, 5900원, 3600원, 38%, 294, 4.9, F, iOS</t>
         </is>
       </c>
-      <c r="I59" t="n">
+      <c r="H59" t="n">
         <v>17</v>
       </c>
     </row>
@@ -2793,40 +2498,35 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2025-06-16 17:03:15</t>
+          <t>store/category/detail/7</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>store/category/detail/7</t>
+          <t>필터</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>필터</t>
+          <t>click</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>click</t>
+          <t>혜택</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>혜택</t>
+          <t>channel, page_url, page_id, act_type, click_text, click_type, ctgr_depth1, os_name</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>channel, page_url, page_id, act_type, click_text, click_type, ctgr_depth1, os_name</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
           <t>Rround, https://store.rround.com/category/detail/7, store/category/detail/7, click, 혜택, 필터, 식품, iOS</t>
         </is>
       </c>
-      <c r="I60" t="n">
+      <c r="H60" t="n">
         <v>8</v>
       </c>
     </row>
@@ -2836,32 +2536,27 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2025-06-16 16:57:09</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
           <t>store/category/detail/27</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr">
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr">
         <is>
           <t>pageview</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>channel, page_url, referer_url, page_id, act_type, ctgr_id, os_name</t>
+        </is>
+      </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>channel, page_url, referer_url, page_id, act_type, ctgr_id, os_name</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
           <t>Rround, https://store.rround.com/category/detail/27, https://store.rround.com/category, store/category/detail/27, pageview, 27, iOS</t>
         </is>
       </c>
-      <c r="I61" t="n">
+      <c r="H61" t="n">
         <v>7</v>
       </c>
     </row>
@@ -2871,40 +2566,35 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2025-06-16 17:05:40</t>
+          <t>store/category/detail/31</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>store/category/detail/31</t>
+          <t>소카테고리</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>소카테고리</t>
+          <t>click</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>click</t>
+          <t>메이크업</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>메이크업</t>
+          <t>channel, page_url, page_id, act_type, click_text, click_type, ctgr_depth1, ctgr_depth2, os_name</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>channel, page_url, page_id, act_type, click_text, click_type, ctgr_depth1, ctgr_depth2, os_name</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
           <t>Rround, https://store.rround.com/category/detail/31, store/category/detail/31, click, 메이크업, 소카테고리, 뷰티, 스킨케어, iOS</t>
         </is>
       </c>
-      <c r="I62" t="n">
+      <c r="H62" t="n">
         <v>9</v>
       </c>
     </row>
@@ -2914,40 +2604,35 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2025-06-16 17:10:14</t>
+          <t>store/category/detail/19</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>store/category/detail/19</t>
+          <t>상품</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>상품</t>
+          <t>click</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>click</t>
+          <t>[설수련] 진 한방농축 5종세트</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>[설수련] 진 한방농축 5종세트</t>
+          <t>channel, page_url, page_id, act_type, click_text, click_type, area_name, ctgr_depth1, ctgr_depth2, prd_code, prd_name, prd_brand, prd_price_origin, prd_price_final, prd_disc_rate, prd_is_ad, os_name</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>channel, page_url, page_id, act_type, click_text, click_type, area_name, ctgr_depth1, ctgr_depth2, prd_code, prd_name, prd_brand, prd_price_origin, prd_price_final, prd_disc_rate, prd_is_ad, os_name</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
           <t>Rround, https://store.rround.com/category/detail/19, store/category/detail/19, click, [설수련] 진 한방농축 5종세트, 상품, 라운드8H4FFH님을 위한 추천 상품, 뷰티, 선물세트, 5323, [설수련] 진 한방농축 5종세트, 살라망카, 99000원, 15900원, 83%, F, iOS</t>
         </is>
       </c>
-      <c r="I63" t="n">
+      <c r="H63" t="n">
         <v>17</v>
       </c>
     </row>
@@ -2957,36 +2642,31 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2025-06-16 17:09:50</t>
+          <t>store/category/detail/19</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>store/category/detail/19</t>
+          <t>상품 찜하기</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>상품 찜하기</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>click</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr"/>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>channel, page_url, page_id, act_type, click_type, area_name, ctgr_depth1, ctgr_depth2, prd_code, prd_name, prd_brand, prd_price_origin, prd_price_final, prd_disc_rate, prd_is_ad, os_name</t>
+        </is>
+      </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>channel, page_url, page_id, act_type, click_type, area_name, ctgr_depth1, ctgr_depth2, prd_code, prd_name, prd_brand, prd_price_origin, prd_price_final, prd_disc_rate, prd_is_ad, os_name</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
           <t>Rround, https://store.rround.com/category/detail/19, store/category/detail/19, click, 상품 찜하기, 라운드8H4FFH님을 위한 추천 상품, 뷰티, 선물세트, 5001, 밀크 바디세트 퍼퓸드 가브리엘 머스크 (바디워시 500g+바디로션 500g), 바틀 스토어, 69000원, 14700원, 78%, F, iOS</t>
         </is>
       </c>
-      <c r="I64" t="n">
+      <c r="H64" t="n">
         <v>16</v>
       </c>
     </row>
@@ -2996,40 +2676,35 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2025-06-16 17:09:24</t>
+          <t>store/category/detail/19</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>store/category/detail/19</t>
+          <t>필터</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>필터</t>
+          <t>click</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>click</t>
+          <t>브랜드</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>브랜드</t>
+          <t>channel, page_url, page_id, act_type, click_text, click_type, ctgr_depth1, ctgr_depth2, os_name</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>channel, page_url, page_id, act_type, click_text, click_type, ctgr_depth1, ctgr_depth2, os_name</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
           <t>Rround, https://store.rround.com/category/detail/19, store/category/detail/19, click, 브랜드, 필터, 뷰티, 선물세트, iOS</t>
         </is>
       </c>
-      <c r="I65" t="n">
+      <c r="H65" t="n">
         <v>9</v>
       </c>
     </row>
@@ -3039,32 +2714,27 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2025-06-16 17:07:16</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
           <t>store/category/detail/31</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr">
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr">
         <is>
           <t>pageview</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr"/>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>channel, page_url, referer_url, page_id, act_type, ctgr_id, os_name</t>
+        </is>
+      </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>channel, page_url, referer_url, page_id, act_type, ctgr_id, os_name</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
           <t>Rround, https://store.rround.com/category/detail/31, https://store.rround.com/category/detail/31, store/category/detail/31, pageview, 31, iOS</t>
         </is>
       </c>
-      <c r="I66" t="n">
+      <c r="H66" t="n">
         <v>7</v>
       </c>
     </row>
@@ -3074,40 +2744,35 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2025-06-16 17:07:16</t>
+          <t>store/category/detail/31</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>store/category/detail/31</t>
+          <t>소카테고리</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>소카테고리</t>
+          <t>click</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>click</t>
+          <t>스킨케어</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>스킨케어</t>
+          <t>channel, page_url, page_id, act_type, click_text, click_type, ctgr_depth1, ctgr_depth2, os_name</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>channel, page_url, page_id, act_type, click_text, click_type, ctgr_depth1, ctgr_depth2, os_name</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
           <t>Rround, https://store.rround.com/category/detail/31, store/category/detail/31, click, 스킨케어, 소카테고리, 뷰티, 스킨케어, iOS</t>
         </is>
       </c>
-      <c r="I67" t="n">
+      <c r="H67" t="n">
         <v>9</v>
       </c>
     </row>
@@ -3117,40 +2782,35 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2025-06-16 17:06:02</t>
+          <t>store/category/detail/31</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>store/category/detail/31</t>
+          <t>상품</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>상품</t>
+          <t>click</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>click</t>
+          <t>[AHC] 아우라 시크릿 톤업크림 스페셜 기획세트</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>[AHC] 아우라 시크릿 톤업크림 스페셜 기획세트</t>
+          <t>channel, page_url, page_id, act_type, click_text, click_type, area_name, ctgr_depth1, ctgr_depth2, prd_code, prd_name, prd_brand, prd_price_origin, prd_price_final, prd_disc_rate, prd_review_cnt, prd_review_score, prd_is_ad, os_name</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>channel, page_url, page_id, act_type, click_text, click_type, area_name, ctgr_depth1, ctgr_depth2, prd_code, prd_name, prd_brand, prd_price_origin, prd_price_final, prd_disc_rate, prd_review_cnt, prd_review_score, prd_is_ad, os_name</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
           <t>Rround, https://store.rround.com/category/detail/31, store/category/detail/31, click, [AHC] 아우라 시크릿 톤업크림 스페셜 기획세트, 상품, 라운드8H4FFH님을 위한 추천 상품, 뷰티, 메이크업, 4780, [AHC] 아우라 시크릿 톤업크림 스페셜 기획세트, 살라망카, 32000원, 21900원, 31%, 2, 5, F, iOS</t>
         </is>
       </c>
-      <c r="I68" t="n">
+      <c r="H68" t="n">
         <v>19</v>
       </c>
     </row>
@@ -3160,36 +2820,31 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2025-06-16 17:06:28</t>
+          <t>store/category/detail/31</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>store/category/detail/31</t>
+          <t>상품 찜하기</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>상품 찜하기</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>click</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr"/>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>channel, page_url, page_id, act_type, click_type, area_name, ctgr_depth1, ctgr_depth2, prd_code, prd_name, prd_brand, prd_price_origin, prd_price_final, prd_disc_rate, prd_review_cnt, prd_review_score, prd_is_ad, os_name</t>
+        </is>
+      </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>channel, page_url, page_id, act_type, click_type, area_name, ctgr_depth1, ctgr_depth2, prd_code, prd_name, prd_brand, prd_price_origin, prd_price_final, prd_disc_rate, prd_review_cnt, prd_review_score, prd_is_ad, os_name</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
           <t>Rround, https://store.rround.com/category/detail/31, store/category/detail/31, click, 상품 찜하기, 라운드8H4FFH님을 위한 추천 상품, 뷰티, 메이크업, 4209, 365 썬BB크림 50ml(1+1), 타임세일, 50000원, 9900원, 80%, 13, 4.7, F, iOS</t>
         </is>
       </c>
-      <c r="I69" t="n">
+      <c r="H69" t="n">
         <v>18</v>
       </c>
     </row>
@@ -3199,40 +2854,35 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2025-06-16 17:06:44</t>
+          <t>store/category/detail/31</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>store/category/detail/31</t>
+          <t>필터</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>필터</t>
+          <t>click</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>click</t>
+          <t>혜택</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>혜택</t>
+          <t>channel, page_url, page_id, act_type, click_text, click_type, ctgr_depth1, ctgr_depth2, os_name</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>channel, page_url, page_id, act_type, click_text, click_type, ctgr_depth1, ctgr_depth2, os_name</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
           <t>Rround, https://store.rround.com/category/detail/31, store/category/detail/31, click, 혜택, 필터, 뷰티, 메이크업, iOS</t>
         </is>
       </c>
-      <c r="I70" t="n">
+      <c r="H70" t="n">
         <v>9</v>
       </c>
     </row>
@@ -3242,32 +2892,27 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2025-06-16 17:10:53</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
           <t>store/myPage</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr">
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr">
         <is>
           <t>pageview</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>channel, page_url, referer_url, page_id, act_type, prd_review_cnt, coupon_cnt, rrpay_point, cart_prd_cnt, like_prd_cnt, like_store_cnt, os_name</t>
+        </is>
+      </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>channel, page_url, referer_url, page_id, act_type, prd_review_cnt, coupon_cnt, rrpay_point, cart_prd_cnt, like_prd_cnt, like_store_cnt, os_name</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
           <t>Rround, https://store.rround.com/myPage, https://store.rround.com/main/home, store/myPage, pageview, 0, 0, 51원, 1, 9, 1, iOS</t>
         </is>
       </c>
-      <c r="I71" t="n">
+      <c r="H71" t="n">
         <v>12</v>
       </c>
     </row>
@@ -3277,40 +2922,35 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2025-06-16 17:11:11</t>
+          <t>store/order/cart</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>store/order/cart</t>
+          <t>장바구니 아이콘</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>장바구니 아이콘</t>
+          <t>click</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>click</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>channel, page_url, page_id, act_type, click_text, click_type, os_name</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>channel, page_url, page_id, act_type, click_text, click_type, os_name</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
           <t>Rround, https://store.rround.com/order/cart, store/order/cart, click, 2, 장바구니 아이콘, iOS</t>
         </is>
       </c>
-      <c r="I72" t="n">
+      <c r="H72" t="n">
         <v>7</v>
       </c>
     </row>
@@ -3320,40 +2960,35 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2025-06-16 17:15:51</t>
+          <t>store/myPage</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>store/myPage</t>
+          <t>상품</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>상품</t>
+          <t>click</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>click</t>
+          <t>비스카 2in1 무선 핸디 스틱 차량용 청소기 BDC-V407C</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>비스카 2in1 무선 핸디 스틱 차량용 청소기 BDC-V407C</t>
+          <t>channel, page_url, page_id, act_type, click_text, click_type, area_name, prd_code, prd_name, prd_brand, prd_price_origin, prd_price_final, prd_disc_rate, prd_review_cnt, prd_review_score, prd_is_ad, coupon_cnt, rrpay_point, cart_prd_cnt, like_prd_cnt, like_store_cnt, os_name</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>channel, page_url, page_id, act_type, click_text, click_type, area_name, prd_code, prd_name, prd_brand, prd_price_origin, prd_price_final, prd_disc_rate, prd_review_cnt, prd_review_score, prd_is_ad, coupon_cnt, rrpay_point, cart_prd_cnt, like_prd_cnt, like_store_cnt, os_name</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
           <t>Rround, https://store.rround.com/myPage, store/myPage, click, 비스카 2in1 무선 핸디 스틱 차량용 청소기 BDC-V407C, 상품, 함께 둘러보실래요?, 659, 비스카 2in1 무선 핸디 스틱 차량용 청소기 BDC-V407C, 빅픽처코퍼레이션, 69900원, 37900원, 45%, 5, 4.6, F, 0, 51원, 1, 9, 1, iOS</t>
         </is>
       </c>
-      <c r="I73" t="n">
+      <c r="H73" t="n">
         <v>22</v>
       </c>
     </row>
@@ -3363,36 +2998,31 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2025-06-16 17:15:43</t>
+          <t>store/myPage</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>store/myPage</t>
+          <t>상품 찜하기</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>상품 찜하기</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>click</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr"/>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>channel, page_url, page_id, act_type, click_type, area_name, prd_code, prd_name, prd_brand, prd_price_origin, prd_price_final, prd_disc_rate, prd_review_cnt, prd_review_score, prd_is_ad, os_name</t>
+        </is>
+      </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>channel, page_url, page_id, act_type, click_type, area_name, prd_code, prd_name, prd_brand, prd_price_origin, prd_price_final, prd_disc_rate, prd_review_cnt, prd_review_score, prd_is_ad, os_name</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
           <t>Rround, https://store.rround.com/myPage, store/myPage, click, 상품 찜하기, 함께 둘러보실래요?, 641, 비스카 차량용 유선 핸디청소기 HNZ-CV12, 빅픽처코퍼레이션, 49900원, 20900원, 58%, 3, 5, F, iOS</t>
         </is>
       </c>
-      <c r="I74" t="n">
+      <c r="H74" t="n">
         <v>16</v>
       </c>
     </row>
@@ -3402,33 +3032,28 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2025-06-16 17:17:06</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
           <t>store/favorite</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr"/>
-      <c r="E75" t="inlineStr">
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr">
         <is>
           <t>pageview</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>channel, page_url, referer_url, page_id, act_type, tab_name, prd_code, prd_name, prd_price_origin, prd_price_final, prd_disc_rate, os_name</t>
+        </is>
+      </c>
       <c r="G75" t="inlineStr">
-        <is>
-          <t>channel, page_url, referer_url, page_id, act_type, tab_name, prd_code, prd_name, prd_price_origin, prd_price_final, prd_disc_rate, os_name</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
         <is>
           <t>Rround, https://store.rround.com/favorite?fromMypage=true&amp;tab=goods, https://store.rround.com/myPage, store/favorite, pageview, 찜한 상품
 , 641___2097___5001___4209___4665___2989___6828___8070___5768___8038, 비스카 차량용 유선 핸디청소기 HNZ-CV12___오아 클린벨 차량용 무선 미니 진공 청소기___밀크 바디세트 퍼퓸드 가브리엘 머스크 (바디워시 500g+바디로션 500g)___365 썬BB크림 50ml(1+1)___[에브리워터] 에브리워터 2lx6팩___산지직송 고당도 프리미엄 수박(정품)___[테팔] 에센셜 포켓 드라이기 HV1515___[닥터포헤어] 1+1 바이오3 탈모완화 샴푸 500ml___슈즈랙 신발정리대 20p___바비리스 버터 바 스트레이트너 ST520K, 0___0___0___0___0___0___0___0___0___0, 20900원___46900원___14700원___9900원___3600원___19800원___23000원___28900원___11200원___26000원, 58%___9%___78%___80%___38%___59%___54%___9%___20%___55%, iOS</t>
         </is>
       </c>
-      <c r="I75" t="n">
+      <c r="H75" t="n">
         <v>12</v>
       </c>
     </row>
@@ -3438,33 +3063,28 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2025-06-16 17:17:19</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
           <t>store/favorite</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr"/>
-      <c r="E76" t="inlineStr">
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr">
         <is>
           <t>pageview</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>channel, page_url, referer_url, page_id, act_type, tab_name, store_name, os_name</t>
+        </is>
+      </c>
       <c r="G76" t="inlineStr">
-        <is>
-          <t>channel, page_url, referer_url, page_id, act_type, tab_name, store_name, os_name</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
         <is>
           <t>Rround, https://store.rround.com/favorite?fromMypage=true&amp;tab=goods, https://store.rround.com/favorite, store/favorite, pageview, 찜한 스토어
 , 제이앤스토어, iOS</t>
         </is>
       </c>
-      <c r="I76" t="n">
+      <c r="H76" t="n">
         <v>8</v>
       </c>
     </row>
@@ -3474,40 +3094,35 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2025-06-16 17:18:27</t>
+          <t>store/favorite</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>store/favorite</t>
+          <t>칩버튼</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>칩버튼</t>
+          <t>click</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>click</t>
+          <t>마이그룹</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>마이그룹</t>
+          <t>channel, page_url, page_id, act_type, click_text, click_type, os_name</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>channel, page_url, page_id, act_type, click_text, click_type, os_name</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
           <t>Rround, https://store.rround.com/favorite?fromMypage=true&amp;tab=goods, store/favorite, click, 마이그룹, 칩버튼, iOS</t>
         </is>
       </c>
-      <c r="I77" t="n">
+      <c r="H77" t="n">
         <v>7</v>
       </c>
     </row>
@@ -3517,40 +3132,35 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2025-06-16 17:18:53</t>
+          <t>store/favorite</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>store/favorite</t>
+          <t>상품</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>상품</t>
+          <t>click</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>click</t>
+          <t>[테팔] 에센셜 포켓 드라이기 HV1515</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>[테팔] 에센셜 포켓 드라이기 HV1515</t>
+          <t>channel, page_url, page_id, act_type, click_text, click_type, prd_code, prd_name, prd_price_origin, prd_price_final, prd_disc_rate, prd_is_ad, os_name</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>channel, page_url, page_id, act_type, click_text, click_type, prd_code, prd_name, prd_price_origin, prd_price_final, prd_disc_rate, prd_is_ad, os_name</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
           <t>Rround, https://store.rround.com/favorite?fromMypage=true&amp;tab=goods, store/favorite, click, [테팔] 에센셜 포켓 드라이기 HV1515, 상품, 6828, [테팔] 에센셜 포켓 드라이기 HV1515, 23000원, 54#000원, 54%, F, iOS</t>
         </is>
       </c>
-      <c r="I78" t="n">
+      <c r="H78" t="n">
         <v>13</v>
       </c>
     </row>
@@ -3560,36 +3170,31 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2025-06-16 17:19:23</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
           <t>store/store/jncorp</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr"/>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>click</t>
+          <t>제이앤스토어</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>제이앤스토어</t>
+          <t>channel, page_url, page_id, act_type, click_text, store_id, os_name</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>channel, page_url, page_id, act_type, click_text, store_id, os_name</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
           <t>Rround, https://store.rround.com/store/jncorp, store/store/jncorp, click, 제이앤스토어, jncorp, iOS</t>
         </is>
       </c>
-      <c r="I79" t="n">
+      <c r="H79" t="n">
         <v>7</v>
       </c>
     </row>
@@ -3599,32 +3204,27 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2025-06-16 17:19:57</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
           <t>store/myPage/recentGoods</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr"/>
-      <c r="E80" t="inlineStr">
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr">
         <is>
           <t>pageview</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>channel, page_url, referer_url, page_id, act_type, prd_code, prd_name, prd_price_origin, prd_price_final, prd_disc_rate, os_name</t>
+        </is>
+      </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>channel, page_url, referer_url, page_id, act_type, prd_code, prd_name, prd_price_origin, prd_price_final, prd_disc_rate, os_name</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
           <t>Rround, https://store.rround.com/myPage/recentGoods, https://store.rround.com/myPage, store/myPage/recentGoods, pageview, 6828___659___5323___4209___4780___3703___7950___6896___6897, [테팔] 에센셜 포켓 드라이기 HV1515___비스카 2in1 무선 핸디 스틱 차량용 청소기 BDC-V407C___[설수련] 진 한방농축 5종세트___365 썬BB크림 50ml(1+1)___[AHC] 아우라 시크릿 톤업크림 스페셜 기획세트___[동원] 고추참치 150g x 8캔___[산해직송] 꿀단지 수박 고당도 정품 4kg 5kg 외___[비타그램] 말랑말랑 보들 좌욕기 VG-PB0823___[비타그램] 면황토 아로마 냉온 찜질팩 3종세트 (허리/다용도사각/목어깨), 0___0___0___0___0___0___0___0___0, 23000원___37900원___15900원___9900원___21900원___20200원___14900원___9800원___38400원, 54%___45%___83%___80%___31%___9%___62%___51%___23%, iOS</t>
         </is>
       </c>
-      <c r="I80" t="n">
+      <c r="H80" t="n">
         <v>11</v>
       </c>
     </row>
@@ -3634,40 +3234,35 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2025-06-16 17:20:13</t>
+          <t>store/myPage/recentGoods</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>store/myPage/recentGoods</t>
+          <t>상품</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>상품</t>
+          <t>click</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>click</t>
+          <t>365 썬BB크림 50ml(1+1)</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>365 썬BB크림 50ml(1+1)</t>
+          <t>channel, page_url, page_id, act_type, click_text, click_type, area_name, prd_code, prd_name, prd_brand, prd_price_origin, prd_price_final, prd_disc_rate, prd_is_ad, os_name</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>channel, page_url, page_id, act_type, click_text, click_type, area_name, prd_code, prd_name, prd_brand, prd_price_origin, prd_price_final, prd_disc_rate, prd_is_ad, os_name</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
           <t>Rround, https://store.rround.com/myPage/recentGoods, store/myPage/recentGoods, click, 365 썬BB크림 50ml(1+1), 상품, 2025.06.16, 4209, 365 썬BB크림 50ml(1+1), 타임세일, 9900원, 9900원, 80%, F, iOS</t>
         </is>
       </c>
-      <c r="I81" t="n">
+      <c r="H81" t="n">
         <v>15</v>
       </c>
     </row>
@@ -3677,36 +3272,31 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2025-06-16 17:21:17</t>
+          <t>store/myPage/recentGoods</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>store/myPage/recentGoods</t>
+          <t>상품 찜하기</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>상품 찜하기</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>click</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr"/>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>channel, page_url, page_id, act_type, click_type, area_name, prd_code, prd_name, prd_brand, prd_price_origin, prd_price_final, prd_disc_rate, prd_is_ad, os_name</t>
+        </is>
+      </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>channel, page_url, page_id, act_type, click_type, area_name, prd_code, prd_name, prd_brand, prd_price_origin, prd_price_final, prd_disc_rate, prd_is_ad, os_name</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
           <t>Rround, https://store.rround.com/myPage/recentGoods, store/myPage/recentGoods, click, 상품 찜하기, 2025.06.16, 5323, [설수련] 진 한방농축 5종세트, 살라망카, 15900원, 15900원, 83%, F, iOS</t>
         </is>
       </c>
-      <c r="I82" t="n">
+      <c r="H82" t="n">
         <v>14</v>
       </c>
     </row>
@@ -3716,32 +3306,27 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2025-06-16 17:22:40</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
           <t>store/myPage/review</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr"/>
-      <c r="E83" t="inlineStr">
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr">
         <is>
           <t>pageview</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr"/>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>channel, page_url, referer_url, page_id, act_type, reviewer_name, reviewer_good_cnt, os_name</t>
+        </is>
+      </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>channel, page_url, referer_url, page_id, act_type, reviewer_name, reviewer_good_cnt, os_name</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
           <t>Rround, https://store.rround.com/myPage/review, https://store.rround.com/myPage, store/myPage/review, pageview, 라운드8H4FFH, 0, iOS</t>
         </is>
       </c>
-      <c r="I83" t="n">
+      <c r="H83" t="n">
         <v>8</v>
       </c>
     </row>
@@ -3751,32 +3336,27 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2025-06-16 17:23:23</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
           <t>store/myPage/review/reviewerranking</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr"/>
-      <c r="E84" t="inlineStr">
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr">
         <is>
           <t>pageview</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr"/>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>channel, page_url, referer_url, page_id, act_type, os_name</t>
+        </is>
+      </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>channel, page_url, referer_url, page_id, act_type, os_name</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
           <t>Rround, https://store.rround.com/myPage/review/reviewerranking, https://store.rround.com/myPage/review, store/myPage/review/reviewerranking, pageview, iOS</t>
         </is>
       </c>
-      <c r="I84" t="n">
+      <c r="H84" t="n">
         <v>6</v>
       </c>
     </row>

--- a/result/log_analysis_combined_no_comma.xlsx
+++ b/result/log_analysis_combined_no_comma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,15 +456,20 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>click_text</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>keys_combined</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>values_combined</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>key_count</t>
         </is>
@@ -476,12 +481,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>store/product/detail/8066</t>
+          <t>store/main/home</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>상품 찜하기</t>
+          <t>상단 탭</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -491,16 +496,21 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>channel, page_url, page_id, act_type, click_type, tab_name, prd_code, prd_name, prd_price_origin, prd_price_final, prd_disc_rate, prd_review_cnt, prd_review_score, prd_tag, os_name</t>
+          <t>홈</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Rround, https://store.rround.com/product/detail/8066, store/product/detail/8066, click, 상품 찜하기, 상품상세, 8066, [닥터지] 여행용 샴푸/바디워시/바디로션 3종 택1, 15000원, 7500원, 50%, 0, 0, #바디로션___#두피케어___#휴대용___#샴푸___#닥터지___#여행용___#바디워시, Android</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
-        <v>15</v>
+          <t>channel, page_url, page_id, act_type, click_text, click_type, order, os_name</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/main/home, store/main/home, click, 홈, 상단 탭, 1, iOS</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -509,27 +519,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>store/main/exhibition/8</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
+          <t>store/main/home</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>하단 GNB</t>
+        </is>
+      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>scroll</t>
+          <t>click</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>channel, page_url, page_id, act_type, scroll_rate, os_name</t>
+          <t>카테고리</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Rround, https://store.rround.com/main/exhibition/8, store/main/exhibition/8, scroll, 75, Android</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>6</v>
+          <t>channel, page_url, page_id, act_type, click_text, click_type, order, os_name</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/main/home, store/main/home, click, 카테고리, 하단 GNB, 1, iOS</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -538,27 +557,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>store/main/home</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
+          <t>store/search</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>검색 아이콘</t>
+        </is>
+      </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>pageview</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>channel, page_url, referer_url, page_id, act_type, os_name</t>
-        </is>
-      </c>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Rround, https://store.rround.com/main/home, https://store.rround.com/main/home, store/main/home, pageview, Android</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>6</v>
+          <t>channel, page_url, page_id, act_type, click_type, tab_name, os_name</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/search, store/search, click, 검색 아이콘, 홈, iOS</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -567,32 +591,41 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>store/main/home</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
+          <t>store/order/cart</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>장바구니 아이콘</t>
+        </is>
+      </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>impression</t>
+          <t>click</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>channel, page_url, page_id, act_type, banner_id, banner_url, banner_text, banner_position, os_name, event_id</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Rround, https://store.rround.com/main/home, store/main/home, impression, 1___2___3___4___9, rround://store?category=web&amp;landingType=I&amp;landingUrl=https://store.rround.com/main/exhibition/14___rround://store?category=web&amp;landingType=I&amp;landingUrl=https://store.rround.com/main/exhibition/9___rround://store?category=web&amp;landingType=I&amp;landingUrl=https://store.rround.com/main/exhibition/4___rround://store?category=web&amp;landingType=I&amp;landingUrl=https://store.rround.com/main/exhibition/2___rround://store?category=web&amp;landingType=I&amp;landingUrl=https://store.rround.com/main/benefits/RTFxYm9JSStPVTV0dnZtb2oxdTIwUT09, 상단 배너이미지___상단 배너이미지___상단 배너이미지___상단 배너이미지___상단 배너이미지, 커머스 메인 상단 배너, Android, 1___2___3___4___9</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>10</v>
+          <t>channel, page_url, page_id, act_type, click_text, click_type, tab_name, os_name</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/order/cart, store/order/cart, click, 2, 장바구니 아이콘, 홈, iOS</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -602,20 +635,2885 @@
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
+          <t>pageview</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>channel, page_url, referer_url, page_id, act_type, os_name</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/main/home, https://store.rround.com/main/home, store/main/home, pageview, iOS</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>store/main/home</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>퀵버튼</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>랭킹</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>channel, page_url, page_id, act_type, click_text, click_type, el_order, os_name</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/main/home, store/main/home, click, 랭킹, 퀵버튼, 2, Android</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>store/main/home</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>퀵버튼</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>랭킹</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>channel, page_url, page_id, act_type, click_text, click_type, el_order, os_name</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/main/home, store/main/home, click, 랭킹, 퀵버튼, 2, Android</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>9</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>store/main/home</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>impression</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
         <is>
           <t>channel, page_url, page_id, act_type, banner_position, os_name</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Rround, https://store.rround.com/main/home, store/main/home, impression, 하단 팝업 배너, Android</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/main/home, store/main/home, impression, 하단 팝업 배너, iOS</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>10</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>store/main/home</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>상단 배너이미지</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>channel, page_url, page_id, act_type, click_text, banner_id, banner_url, banner_position, banner_order, os_name</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/main/home, store/main/home, click, 상단 배너이미지, 9, rround://store?category=web&amp;landingType=I&amp;landingUrl=https://store.rround.com/main/exhibition/9, 커머스 메인 상단 배너, 2, iOS</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>11</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>store/main/home</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>상품</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>비달사순 2000W 파워 로즈골드 드라이어 VSD5129K</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>channel, page_url, page_id, act_type, click_text, click_type, tab_name, prd_order, area_order, prd_code, prd_name, prd_brand, prd_price_origin, prd_price_final, prd_disc_rate, prd_tag, prd_is_ad, el_order, os_name</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/main/home, store/main/home, click, 비달사순 2000W 파워 로즈골드 드라이어 VSD5129K, 상품, 식품
+, 3, 2/7, 8001, 비달사순 2000W 파워 로즈골드 드라이어 VSD5129K, 최우수판매대리점, 34800원, 22900원, 34%, 무료배송, F, 3, iOS</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>12</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>store/main/home</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>상품 찜하기</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>channel, page_url, page_id, act_type, click_type, tab_name, area_order, prd_code, prd_name, prd_brand, prd_price_origin, prd_price_final, prd_disc_rate, prd_is_ad, el_order, os_name</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/main/home, store/main/home, click, 상품 찜하기, 식품
+, 1/7, 8038, 바비리스 버터 바 스트레이트너 ST520K, 최우수판매대리점, 59000원, 26000원, 55%, F, 5, iOS</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>16</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>store/main/ranking</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>pageview</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>channel, page_url, referer_url, page_id, act_type, os_name</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/main/ranking, https://store.rround.com/main/home, store/main/ranking, pageview, iOS</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>17</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>store/main/ranking</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>scroll</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>channel, page_url, page_id, act_type, area_name, os_name</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/main/ranking, store/main/ranking, scroll, 카테고리, iOS</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>18</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>store/main/ranking</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>인기검색어</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>channel, page_url, page_id, act_type, click_type, os_name</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/main/ranking, store/main/ranking, click, 인기검색어, iOS</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>19</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>store/main/ranking</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>카테고리 탭</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>홈인테리어</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>channel, page_url, page_id, act_type, click_text, click_type, tab_name, os_name</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/main/ranking, store/main/ranking, click, 홈인테리어, 카테고리 탭, 홈인테리어
+, iOS</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>20</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>store/main/ranking</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>칩버튼</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>전체 / 전체</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>channel, page_url, page_id, act_type, click_text, click_type, os_name</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/main/ranking, store/main/ranking, click, 전체 / 전체, 칩버튼, iOS</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>21</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>store/main/ranking</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>상품</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>슈즈랙 신발정리대 20p</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>channel, page_url, page_id, act_type, click_text, click_type, tab_name, prd_code, prd_name, prd_brand, prd_price_origin, prd_price_final, prd_disc_rate, prd_review_cnt, prd_review_score, prd_is_ad, el_order, os_name</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/main/ranking, store/main/ranking, click, 슈즈랙 신발정리대 20p, 상품, 홈인테리어
+, 5768, 슈즈랙 신발정리대 20p, Jeepsaram 집사람, 14000원, 11200원, 20%, 3, 5, F, 1, iOS</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>22</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>store/main/ranking</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>상품 찜하기</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>channel, page_url, page_id, act_type, click_type, tab_name, prd_code, prd_name, prd_brand, prd_price_origin, prd_price_final, prd_disc_rate, prd_review_cnt, prd_review_score, prd_is_ad, el_order, os_name</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/main/ranking, store/main/ranking, click, 상품 찜하기, 홈인테리어
+, 5768, 슈즈랙 신발정리대 20p, Jeepsaram 집사람, 14000원, 11200원, 20%, 3, 5, F, 1, iOS</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>25</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>store/main/deal</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>pageview</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>channel, page_url, referer_url, page_id, act_type, os_name</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/main/deal, https://store.rround.com/main/ranking, store/main/deal, pageview, iOS</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>26</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>store/main/deal</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>scroll</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>channel, page_url, page_id, act_type, scroll_rate, os_name</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/main/deal, store/main/deal, scroll, 25, iOS</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>27</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>store/main/deal</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>상품</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>[닥터포헤어] 1+1 바이오3 탈모완화 샴푸 500ml</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>channel, page_url, page_id, act_type, click_text, click_type, area_name, prd_code, prd_name, prd_brand, prd_price_origin, prd_disc_rate, prd_is_ad, os_name</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/main/deal, store/main/deal, click, [닥터포헤어] 1+1 바이오3 탈모완화 샴푸 500ml, 상품, 무더운 여름 케어의 시작, 8070, [닥터포헤어] 1+1 바이오3 탈모완화 샴푸 500ml, 닥터포헤어, 28900원, 9%, F, iOS</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>28</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>store/main/deal</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>상품 찜하기</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>channel, page_url, page_id, act_type, click_type, area_name, prd_code, prd_name, prd_brand, prd_price_origin, prd_disc_rate, prd_is_ad, os_name</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/main/deal, store/main/deal, click, 상품 찜하기, 무더운 여름 케어의 시작, 8070, [닥터포헤어] 1+1 바이오3 탈모완화 샴푸 500ml, 닥터포헤어, 28900원, 9%, F, iOS</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>29</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>store/main/exhibition</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>scroll</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>channel, page_url, page_id, act_type, scroll_rate, os_name</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/main/exhibition, store/main/exhibition, scroll, 25, iOS</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>30</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>store/main/exhibition/9</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>기획전 리스트</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>너의 하루에 스며든 작은 여유</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>channel, page_url, page_id, act_type, click_text, click_type, exh_id, exh_name, banner_id, exh_tag, os_name</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/main/exhibition/9, store/main/exhibition/9, click, 너의 하루에 스며든 작은 여유, 기획전 리스트, 9, 너의 하루에 스며든 작은 여유, 9, #비스카 #주방용품# #식기 #그릇 #냄비, iOS</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>31</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>store/main/exhibition/9</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>pageview</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>channel, page_url, referer_url, page_id, act_type, exh_id, exh_name, os_name</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/main/exhibition/9, https://store.rround.com/main/exhibition/9, store/main/exhibition/9, pageview, 9, 너의 하루에 스며든 작은 여유, iOS</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>32</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>store/main/exhibition</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>더보기</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>기획전 구경하러 가기</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>channel, page_url, page_id, act_type, click_text, click_type, os_name</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/main/exhibition, store/main/exhibition, click, 기획전 구경하러 가기, 더보기, iOS</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>33</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>store/main/exhibition/9</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>필터</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>필터</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>channel, page_url, page_id, act_type, click_text, click_type, os_name</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/main/exhibition/9, store/main/exhibition/9, click, 필터, 필터, iOS</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>35</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>store/main/exhibition/9</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>카테고리 탭</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>생활가전</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>channel, page_url, page_id, act_type, click_text, click_type, tab_name, os_name</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/main/exhibition/9, store/main/exhibition/9, click, 생활가전, 카테고리 탭, 생활가전
+, iOS</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>45</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>store/product/detail/5105</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>pageview</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>channel, page_url, referer_url, page_id, act_type, tab_name, prd_code, prd_name, prd_brand, prd_price_origin, prd_price_final, prd_disc_rate, prd_review_cnt, prd_review_score, prd_tag, os_name</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/product/detail/5105, https://store.rround.com/product/detail/5105, store/product/detail/5105, pageview, 상품상세
+, 5105, 트리밀데이즈 루테인 밀크씨슬 프리미엄 900mg*30캡슐, 제이앤스토어, 15900원, 10800원, 32%, 0, 0, #한미양행___#CMG제약___#트리밀데이즈___#영양제___#비타민, iOS</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>46</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>store/product/detail/5105</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>구매 버튼</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>구매하기</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>channel, page_url, page_id, act_type, click_text, click_type, tab_name, prd_code, prd_name, prd_price_origin, prd_price_final, prd_disc_rate, prd_review_cnt, prd_review_score, prd_tag, os_name</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/product/detail/5105, store/product/detail/5105, click, 구매하기, 구매 버튼, 상품상세
+, 5105, 트리밀데이즈 루테인 밀크씨슬 프리미엄 900mg*30캡슐, 15900원, 10800원, 32%, 0, 0, #한미양행___#CMG제약___#트리밀데이즈___#영양제___#비타민, iOS</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>47</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>store/order/payment</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>pageview</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>channel, page_url, referer_url, page_id, act_type, prd_code, prd_name, prd_brand, total_price_origin, total_price_disc, total_price_final, total_delivery_price, use_rrpay_point, rrpay_point, os_name</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/order/payment?selectedCartId=[27035], https://store.rround.com/product/detail/5105, store/order/payment, pageview, 5105, 트리밀데이즈 루테인 밀크씨슬 프리미엄 900mg*30캡슐, 제이앤스토어, 15900원, -5100원, 10800원, 0원, -0원, 51원, iOS</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>48</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>store/product/detail/508</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>장바구니 버튼</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>장바구니 담기</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>channel, page_url, page_id, act_type, click_text, click_type, tab_name, prd_code, prd_name, prd_price_origin, prd_price_final, prd_disc_rate, prd_review_cnt, prd_review_score, prd_tag, os_name</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/product/detail/508, store/product/detail/508, click, 장바구니 담기, 장바구니 버튼, 상품상세
+, 508, [코오롱제약] 알티지오메가3 멀티플러스 (1023mg*30캡슐), 70000원, 10900원, 84%, 28, 4.8, #오메가3___#알티지오메가___#코오롱제약___#식품___#영양제___#캡슐___#멀티플러스___#건강식품, iOS</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>50</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>store/product/detail/5105</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>pageview</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>channel, page_url, referer_url, page_id, act_type, tab_name, prd_code, prd_name, prd_brand, prd_price_origin, prd_disc_rate, prd_review_cnt, prd_review_score, prd_tag, os_name</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/product/detail/5105, https://store.rround.com/product/detail/5105, store/product/detail/5105, pageview, 리뷰 
+, 5105, 트리밀데이즈 루테인 밀크씨슬 프리미엄 900mg*30캡슐, 제이앤스토어, 15900원, 32%, 0, 0, #한미양행___#CMG제약___#트리밀데이즈___#영양제___#비타민, iOS</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>51</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>store/product/detail/4513</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>상품</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>[코오롱제약] 알티지오메가3 멀티플러스 (1023mg*30캡슐)</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>channel, page_url, page_id, act_type, click_text, click_type, area_name, tab_name, prd_code, prd_name, prd_brand, prd_price_origin, prd_price_final, prd_disc_rate, prd_review_cnt, prd_review_score, prd_is_ad, el_order, os_name</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/product/detail/4513, store/product/detail/4513, click, [코오롱제약] 알티지오메가3 멀티플러스 (1023mg*30캡슐), 상품, 같이 둘러볼만한 다양한 스토어 상품 추천드려요, 상품상세
+, 508, [코오롱제약] 알티지오메가3 멀티플러스 (1023mg*30캡슐), BIZLINE, 70000원, 10900원, 84%, 28, 4.8, F, 2, iOS</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>52</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>store/product/detail/5105</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>상품 찜하기</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>channel, page_url, page_id, act_type, click_type, tab_name, prd_code, prd_name, prd_price_origin, prd_price_final, prd_disc_rate, prd_review_cnt, prd_review_score, prd_tag, os_name</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/product/detail/5105, store/product/detail/5105, click, 상품 찜하기, 상품상세
+, 5105, 트리밀데이즈 루테인 밀크씨슬 프리미엄 900mg*30캡슐, 15900원, 10800원, 32%, 0, 0, #한미양행___#CMG제약___#트리밀데이즈___#영양제___#비타민, iOS</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>54</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>store/store/jncorp</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>제이앤스토어관심 고객0</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>channel, page_url, page_id, act_type, click_text, area_name, store_id, store_name, os_name</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/store/jncorp, store/store/jncorp, click, 제이앤스토어관심 고객0, 라운드에서 지금 추천하는 스토어, jncorp, 제이앤스토어, iOS</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>56</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>store/product/detail/508</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>리뷰 사진</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>channel, page_url, page_id, act_type, click_text, tab_name, prd_code, prd_name, prd_price_origin, prd_price_final, prd_disc_rate, prd_review_cnt, prd_review_score, prd_tag, os_name</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/product/detail/508, store/product/detail/508, click, 리뷰 사진, 상품상세
+, 508, [코오롱제약] 알티지오메가3 멀티플러스 (1023mg*30캡슐), 70000원, 10900원, 84%, 28, 4.8, #오메가3___#알티지오메가___#코오롱제약___#식품___#영양제___#캡슐___#멀티플러스___#건강식품, iOS</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>59</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>store/product/detail/508</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>리뷰</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>리뷰 이미지 1</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>channel, page_url, page_id, act_type, click_text, click_type, area_name, tab_name, prd_code, prd_name, prd_price_origin, prd_price_final, prd_disc_rate, prd_review_score, prd_tag, os_name</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/product/detail/508, store/product/detail/508, click, 리뷰 이미지 1, 리뷰, 전체 리뷰, 리뷰 
+, 508, [코오롱제약] 알티지오메가3 멀티플러스 (1023mg*30캡슐), 70000원, 10900원, 84%, 5, #오메가3___#알티지오메가___#코오롱제약___#식품___#영양제___#캡슐___#멀티플러스___#건강식품, iOS</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>60</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>store/product/detail/8038</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>상품 문의 작성하기</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>channel, page_url, page_id, act_type, click_text, tab_name, prd_code, prd_name, prd_price_origin, prd_price_final, prd_disc_rate, prd_review_cnt, prd_review_score, prd_tag, os_name</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/product/detail/8038, store/product/detail/8038, click, 상품 문의 작성하기, 상품문의 
+, 8038, 바비리스 버터 바 스트레이트너 ST520K, 59000원, 26000원, 55%, 0, 0, #고데기___#고대기___#여행용고데기___#미용실고데기___#뿌리볼륨고데기___#가벼운고데기___#스트레이트너___#매직기___#바비리스고데기___#웨이브고데기___#온도조절고데기, iOS</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>62</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>store/order/cart</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>pageview</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>channel, page_url, referer_url, page_id, act_type, prd_code, os_name</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/order/cart, https://store.rround.com/product/detail/8038, store/order/cart, pageview, 508, iOS</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>63</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>store/order/cart</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>구매 버튼</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>48200원 구매하기</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>channel, page_url, page_id, act_type, click_text, click_type, prd_code, prd_name, prd_brand, prd_price_final, delivery_price, total_price_origin, total_price_disc, total_price_final, total_delivery_price, os_name</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/order/cart, store/order/cart, click, 48200원 구매하기, 구매 버튼, 6896___6897, [비타그램] 말랑말랑 보들 좌욕기 VG-PB0823___[비타그램] 면황토 아로마 냉온 찜질팩 3종세트 (허리/다용도사각/목어깨), 진인프라___진인프라, 9800원___38400원, 0원, 70000원, -21800원, 48200원, 0원, iOS</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>65</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>store/order/cart</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>상품</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>[비타그램] 면황토 아로마 냉온 찜질팩 3종세트 (허리/다용도사각/목어깨)</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>channel, page_url, page_id, act_type, click_text, click_type, prd_code, prd_name, prd_brand, prd_price_origin, prd_price_final, prd_disc_rate, prd_is_ad, os_name</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/order/cart, store/order/cart, click, [비타그램] 면황토 아로마 냉온 찜질팩 3종세트 (허리/다용도사각/목어깨), 상품, 6897, [비타그램] 면황토 아로마 냉온 찜질팩 3종세트 (허리/다용도사각/목어깨), 진인프라, 50000원, 38400원, 23%, F, iOS</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>66</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>store/order/cart</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>상품 찜하기</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>channel, page_url, page_id, act_type, click_type, prd_code, prd_name, prd_brand, prd_price_origin, prd_price_final, prd_disc_rate, prd_is_ad, os_name</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/order/cart, store/order/cart, click, 상품 찜하기, 6828, [테팔] 에센셜 포켓 드라이기 HV1515, MallRaon, 50000원, 23000원, 54%, F, iOS</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>68</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>store/order/payment</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>48200원 결제하기</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>channel, page_url, page_id, act_type, click_text, prd_code, prd_brand, total_price_origin, total_price_disc, total_price_final, total_delivery_price, use_rrpay_point, rrpay_point, os_name</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/order/payment?selectedCartId=[2757627564], store/order/payment, click, 48200원 결제하기, 6896___6897, 진인프라___진인프라, 70000원, -21800원, 48200원, 0원, -0원, 51원, iOS</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>71</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>store/search</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>pageview</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>channel, page_url, referer_url, page_id, act_type, srch_kwd, os_name</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/search, https://store.rround.com/main/home, store/search, pageview, 비스카 특가 구경하기!, iOS</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>72</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>store/search</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>검색 아이콘</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>channel, page_url, page_id, act_type, click_type, srch_kwd, srch_kwd_type, os_name</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/search, store/search, click, 검색 아이콘, 사과, 수동검색어, iOS</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>74</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>store/search</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>추천검색어</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>마스크팩</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>channel, page_url, page_id, act_type, click_text, click_type, area_name, os_name</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/search, store/search, click, 마스크팩, 추천검색어, 추천 검색어, iOS</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>79</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>store/search/result</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>pageview</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>channel, page_url, referer_url, page_id, act_type, srch_kwd, os_name</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/search/result?keyword=사과, https://store.rround.com/search, store/search/result, pageview, 사과, iOS</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>80</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>store/search/result</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>검색 아이콘</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>channel, page_url, page_id, act_type, click_type, srch_kwd, srch_kwd_type, os_name</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/search/result?keyword=수박, store/search/result, click, 검색 아이콘, 수박, 수동검색어, iOS</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>81</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>store/search/result</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>연관검색어</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>맛있는수박</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>channel, page_url, page_id, act_type, click_text, click_type, srch_kwd, os_name</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/search/result?keyword=맛있는수박, store/search/result, click, 맛있는수박, 연관검색어, 맛있는수박, iOS</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>83</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>store/search/result</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>칩버튼</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>행복한하루</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>channel, page_url, page_id, act_type, click_text, click_type, area_name, os_name</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/search/result?keyword=맛있는수박, store/search/result, click, 행복한하루, 칩버튼, 라운드8H4FFH님을 위한 맞춤 정보, iOS</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>84</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>store/search/result</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>상품</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>[산해직송] 꿀단지 수박 고당도 정품 4kg 5kg 외</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>channel, page_url, page_id, act_type, click_text, click_type, area_name, tab_name, prd_code, prd_name, prd_brand, prd_price_origin, prd_disc_rate, prd_is_ad, el_order, os_name</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/search/result?keyword=수박, store/search/result, click, [산해직송] 꿀단지 수박 고당도 정품 4kg 5kg 외, 상품, 라운드8H4FFH님을 위한 맞춤 정보, For you
+, 7950, [산해직송] 꿀단지 수박 고당도 정품 4kg 5kg 외, 산해직송, 14900원, 62%, F, 1, iOS</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>85</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>store/search/result</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>상품 찜하기</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>channel, page_url, page_id, act_type, click_type, area_name, tab_name, prd_code, prd_name, prd_brand, prd_price_origin, prd_disc_rate, prd_is_ad, el_order, os_name</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/search/result?keyword=맛있는수박, store/search/result, click, 상품 찜하기, 라운드8H4FFH님을 위한 맞춤 정보, 행복한하루
+, 2989, 산지직송 고당도 프리미엄 수박(정품), 행복한하루, 19800원, 59%, F, 2, iOS</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>89</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>store/search/result</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>필터</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>필터</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>channel, page_url, page_id, act_type, click_text, click_type, os_name</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/search/result?keyword=맛있는수박, store/search/result, click, 필터, 필터, iOS</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>90</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>store/category</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>pageview</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>channel, page_url, referer_url, page_id, act_type, os_name</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/category, https://store.rround.com/main/home, store/category, pageview, iOS</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>91</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>store/category/detail/9</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>대카테고리</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>홈인테리어</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>channel, page_url, page_id, act_type, click_text, click_type, ctgr_id, ctgr_depth1, os_name</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/category/detail/9, store/category/detail/9, click, 홈인테리어, 대카테고리, 9, 식품, iOS</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>92</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>store/category/detail/27</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>중카테고리</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>수납/정리</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>channel, page_url, page_id, act_type, click_text, click_type, ctgr_id, ctgr_depth1, ctgr_depth2, ctgr_depth3, os_name</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/category/detail/27, store/category/detail/27, click, 수납/정리, 중카테고리, 27, 식품, 수납/정리, 수납/정리, iOS</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>93</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>store/category/detail/9</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>pageview</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>channel, page_url, referer_url, page_id, act_type, ctgr_id, os_name</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/category/detail/9, https://store.rround.com/category, store/category/detail/9, pageview, 9, iOS</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>94</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>store/category/detail/7</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>카테고리 더보기</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>카테고리 더보기</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>channel, page_url, page_id, act_type, click_text, click_type, ctgr_depth1, os_name</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/category/detail/7, store/category/detail/7, click, 카테고리 더보기, 카테고리 더보기, 식품, iOS</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>95</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>store/category/detail/7</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>중카테고리</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>선물세트</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>channel, page_url, page_id, act_type, click_text, click_type, ctgr_depth1, os_name</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/category/detail/7, store/category/detail/7, click, 선물세트, 중카테고리, 식품, iOS</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>96</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>store/product/detail/3703</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>pageview</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>channel, page_url, referer_url, page_id, act_type, tab_name, prd_code, prd_name, prd_brand, prd_price_origin, prd_price_final, prd_disc_rate, prd_review_cnt, prd_review_score, prd_tag, os_name</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/product/detail/3703, https://store.rround.com/product/detail/641, store/product/detail/3703, pageview, 상품상세
+, 3703, [동원] 고추참치 150g x 8캔, 이지앤웰스, 22400원, 20200원, 9%, 3, 5, #동원___#식품___#캔___#고추참치___#참치___#연어___#통조림, iOS</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>97</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>store/category/detail/7</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>상품 찜하기</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>channel, page_url, page_id, act_type, click_type, area_name, ctgr_depth1, prd_code, prd_name, prd_brand, prd_price_origin, prd_price_final, prd_disc_rate, prd_review_cnt, prd_review_score, prd_is_ad, os_name</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/category/detail/7, store/category/detail/7, click, 상품 찜하기, 라운드8H4FFH님을 위한 추천 상품, 식품, 4665, [에브리워터] 에브리워터 2lx6팩, 이지앤웰스, 5900원, 3600원, 38%, 294, 4.9, F, iOS</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>98</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>store/category/detail/7</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>필터</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>혜택</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>channel, page_url, page_id, act_type, click_text, click_type, ctgr_depth1, os_name</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/category/detail/7, store/category/detail/7, click, 혜택, 필터, 식품, iOS</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>99</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>store/category/detail/27</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>pageview</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>channel, page_url, referer_url, page_id, act_type, ctgr_id, os_name</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/category/detail/27, https://store.rround.com/category, store/category/detail/27, pageview, 27, iOS</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>100</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>store/category/detail/31</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>소카테고리</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>메이크업</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>channel, page_url, page_id, act_type, click_text, click_type, ctgr_depth1, ctgr_depth2, os_name</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/category/detail/31, store/category/detail/31, click, 메이크업, 소카테고리, 뷰티, 스킨케어, iOS</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>101</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>store/category/detail/19</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>상품</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>[설수련] 진 한방농축 5종세트</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>channel, page_url, page_id, act_type, click_text, click_type, area_name, ctgr_depth1, ctgr_depth2, prd_code, prd_name, prd_brand, prd_price_origin, prd_price_final, prd_disc_rate, prd_is_ad, os_name</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/category/detail/19, store/category/detail/19, click, [설수련] 진 한방농축 5종세트, 상품, 라운드8H4FFH님을 위한 추천 상품, 뷰티, 선물세트, 5323, [설수련] 진 한방농축 5종세트, 살라망카, 99000원, 15900원, 83%, F, iOS</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>102</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>store/category/detail/19</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>상품 찜하기</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>channel, page_url, page_id, act_type, click_type, area_name, ctgr_depth1, ctgr_depth2, prd_code, prd_name, prd_brand, prd_price_origin, prd_price_final, prd_disc_rate, prd_is_ad, os_name</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/category/detail/19, store/category/detail/19, click, 상품 찜하기, 라운드8H4FFH님을 위한 추천 상품, 뷰티, 선물세트, 5001, 밀크 바디세트 퍼퓸드 가브리엘 머스크 (바디워시 500g+바디로션 500g), 바틀 스토어, 69000원, 14700원, 78%, F, iOS</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>103</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>store/category/detail/19</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>필터</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>브랜드</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>channel, page_url, page_id, act_type, click_text, click_type, ctgr_depth1, ctgr_depth2, os_name</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/category/detail/19, store/category/detail/19, click, 브랜드, 필터, 뷰티, 선물세트, iOS</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>104</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>store/category/detail/31</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>pageview</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>channel, page_url, referer_url, page_id, act_type, ctgr_id, os_name</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/category/detail/31, https://store.rround.com/category/detail/31, store/category/detail/31, pageview, 31, iOS</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>105</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>store/category/detail/31</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>소카테고리</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>스킨케어</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>channel, page_url, page_id, act_type, click_text, click_type, ctgr_depth1, ctgr_depth2, os_name</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/category/detail/31, store/category/detail/31, click, 스킨케어, 소카테고리, 뷰티, 스킨케어, iOS</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>106</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>store/category/detail/31</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>상품</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>[AHC] 아우라 시크릿 톤업크림 스페셜 기획세트</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>channel, page_url, page_id, act_type, click_text, click_type, area_name, ctgr_depth1, ctgr_depth2, prd_code, prd_name, prd_brand, prd_price_origin, prd_price_final, prd_disc_rate, prd_review_cnt, prd_review_score, prd_is_ad, os_name</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/category/detail/31, store/category/detail/31, click, [AHC] 아우라 시크릿 톤업크림 스페셜 기획세트, 상품, 라운드8H4FFH님을 위한 추천 상품, 뷰티, 메이크업, 4780, [AHC] 아우라 시크릿 톤업크림 스페셜 기획세트, 살라망카, 32000원, 21900원, 31%, 2, 5, F, iOS</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>107</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>store/category/detail/31</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>상품 찜하기</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>channel, page_url, page_id, act_type, click_type, area_name, ctgr_depth1, ctgr_depth2, prd_code, prd_name, prd_brand, prd_price_origin, prd_price_final, prd_disc_rate, prd_review_cnt, prd_review_score, prd_is_ad, os_name</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/category/detail/31, store/category/detail/31, click, 상품 찜하기, 라운드8H4FFH님을 위한 추천 상품, 뷰티, 메이크업, 4209, 365 썬BB크림 50ml(1+1), 타임세일, 50000원, 9900원, 80%, 13, 4.7, F, iOS</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>108</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>store/category/detail/31</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>필터</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>혜택</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>channel, page_url, page_id, act_type, click_text, click_type, ctgr_depth1, ctgr_depth2, os_name</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/category/detail/31, store/category/detail/31, click, 혜택, 필터, 뷰티, 메이크업, iOS</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>109</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>store/myPage</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>pageview</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>channel, page_url, referer_url, page_id, act_type, prd_review_cnt, coupon_cnt, rrpay_point, cart_prd_cnt, like_prd_cnt, like_store_cnt, os_name</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/myPage, https://store.rround.com/main/home, store/myPage, pageview, 0, 0, 51원, 1, 9, 1, iOS</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>110</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>store/order/cart</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>장바구니 아이콘</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>channel, page_url, page_id, act_type, click_text, click_type, os_name</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/order/cart, store/order/cart, click, 2, 장바구니 아이콘, iOS</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>114</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>store/myPage</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>상품</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>비스카 2in1 무선 핸디 스틱 차량용 청소기 BDC-V407C</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>channel, page_url, page_id, act_type, click_text, click_type, area_name, prd_code, prd_name, prd_brand, prd_price_origin, prd_price_final, prd_disc_rate, prd_review_cnt, prd_review_score, prd_is_ad, coupon_cnt, rrpay_point, cart_prd_cnt, like_prd_cnt, like_store_cnt, os_name</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/myPage, store/myPage, click, 비스카 2in1 무선 핸디 스틱 차량용 청소기 BDC-V407C, 상품, 함께 둘러보실래요?, 659, 비스카 2in1 무선 핸디 스틱 차량용 청소기 BDC-V407C, 빅픽처코퍼레이션, 69900원, 37900원, 45%, 5, 4.6, F, 0, 51원, 1, 9, 1, iOS</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>115</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>store/myPage</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>상품 찜하기</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>channel, page_url, page_id, act_type, click_type, area_name, prd_code, prd_name, prd_brand, prd_price_origin, prd_price_final, prd_disc_rate, prd_review_cnt, prd_review_score, prd_is_ad, os_name</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/myPage, store/myPage, click, 상품 찜하기, 함께 둘러보실래요?, 641, 비스카 차량용 유선 핸디청소기 HNZ-CV12, 빅픽처코퍼레이션, 49900원, 20900원, 58%, 3, 5, F, iOS</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>116</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>store/favorite</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>pageview</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>channel, page_url, referer_url, page_id, act_type, tab_name, prd_code, prd_name, prd_price_origin, prd_price_final, prd_disc_rate, os_name</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/favorite?fromMypage=true&amp;tab=goods, https://store.rround.com/myPage, store/favorite, pageview, 찜한 상품
+, 641___2097___5001___4209___4665___2989___6828___8070___5768___8038, 비스카 차량용 유선 핸디청소기 HNZ-CV12___오아 클린벨 차량용 무선 미니 진공 청소기___밀크 바디세트 퍼퓸드 가브리엘 머스크 (바디워시 500g+바디로션 500g)___365 썬BB크림 50ml(1+1)___[에브리워터] 에브리워터 2lx6팩___산지직송 고당도 프리미엄 수박(정품)___[테팔] 에센셜 포켓 드라이기 HV1515___[닥터포헤어] 1+1 바이오3 탈모완화 샴푸 500ml___슈즈랙 신발정리대 20p___바비리스 버터 바 스트레이트너 ST520K, 0___0___0___0___0___0___0___0___0___0, 20900원___46900원___14700원___9900원___3600원___19800원___23000원___28900원___11200원___26000원, 58%___9%___78%___80%___38%___59%___54%___9%___20%___55%, iOS</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>117</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>store/favorite</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>pageview</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>channel, page_url, referer_url, page_id, act_type, tab_name, store_name, os_name</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/favorite?fromMypage=true&amp;tab=goods, https://store.rround.com/favorite, store/favorite, pageview, 찜한 스토어
+, 제이앤스토어, iOS</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>119</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>store/favorite</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>칩버튼</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>마이그룹</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>channel, page_url, page_id, act_type, click_text, click_type, os_name</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/favorite?fromMypage=true&amp;tab=goods, store/favorite, click, 마이그룹, 칩버튼, iOS</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>120</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>store/favorite</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>상품</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>[테팔] 에센셜 포켓 드라이기 HV1515</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>channel, page_url, page_id, act_type, click_text, click_type, prd_code, prd_name, prd_price_origin, prd_price_final, prd_disc_rate, prd_is_ad, os_name</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/favorite?fromMypage=true&amp;tab=goods, store/favorite, click, [테팔] 에센셜 포켓 드라이기 HV1515, 상품, 6828, [테팔] 에센셜 포켓 드라이기 HV1515, 23000원, 54#000원, 54%, F, iOS</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>121</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>store/store/jncorp</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>제이앤스토어</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>channel, page_url, page_id, act_type, click_text, store_id, os_name</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/store/jncorp, store/store/jncorp, click, 제이앤스토어, jncorp, iOS</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>122</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>store/myPage/recentGoods</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>pageview</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>channel, page_url, referer_url, page_id, act_type, prd_code, prd_name, prd_price_origin, prd_price_final, prd_disc_rate, os_name</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/myPage/recentGoods, https://store.rround.com/myPage, store/myPage/recentGoods, pageview, 6828___659___5323___4209___4780___3703___7950___6896___6897, [테팔] 에센셜 포켓 드라이기 HV1515___비스카 2in1 무선 핸디 스틱 차량용 청소기 BDC-V407C___[설수련] 진 한방농축 5종세트___365 썬BB크림 50ml(1+1)___[AHC] 아우라 시크릿 톤업크림 스페셜 기획세트___[동원] 고추참치 150g x 8캔___[산해직송] 꿀단지 수박 고당도 정품 4kg 5kg 외___[비타그램] 말랑말랑 보들 좌욕기 VG-PB0823___[비타그램] 면황토 아로마 냉온 찜질팩 3종세트 (허리/다용도사각/목어깨), 0___0___0___0___0___0___0___0___0, 23000원___37900원___15900원___9900원___21900원___20200원___14900원___9800원___38400원, 54%___45%___83%___80%___31%___9%___62%___51%___23%, iOS</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>123</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>store/myPage/recentGoods</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>상품</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>365 썬BB크림 50ml(1+1)</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>channel, page_url, page_id, act_type, click_text, click_type, area_name, prd_code, prd_name, prd_brand, prd_price_origin, prd_price_final, prd_disc_rate, prd_is_ad, os_name</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/myPage/recentGoods, store/myPage/recentGoods, click, 365 썬BB크림 50ml(1+1), 상품, 2025.06.16, 4209, 365 썬BB크림 50ml(1+1), 타임세일, 9900원, 9900원, 80%, F, iOS</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>124</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>store/myPage/recentGoods</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>상품 찜하기</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>channel, page_url, page_id, act_type, click_type, area_name, prd_code, prd_name, prd_brand, prd_price_origin, prd_price_final, prd_disc_rate, prd_is_ad, os_name</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/myPage/recentGoods, store/myPage/recentGoods, click, 상품 찜하기, 2025.06.16, 5323, [설수련] 진 한방농축 5종세트, 살라망카, 15900원, 15900원, 83%, F, iOS</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>125</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>store/myPage/review</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr"/>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>pageview</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>channel, page_url, referer_url, page_id, act_type, reviewer_name, reviewer_good_cnt, os_name</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/myPage/review, https://store.rround.com/myPage, store/myPage/review, pageview, 라운드8H4FFH, 0, iOS</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>130</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>store/myPage/review/reviewerranking</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>pageview</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>channel, page_url, referer_url, page_id, act_type, os_name</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/myPage/review/reviewerranking, https://store.rround.com/myPage/review, store/myPage/review/reviewerranking, pageview, iOS</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
         <v>6</v>
       </c>
     </row>

--- a/result/log_analysis_combined_no_comma.xlsx
+++ b/result/log_analysis_combined_no_comma.xlsx
@@ -659,36 +659,28 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>store/main/home</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>퀵버튼</t>
-        </is>
-      </c>
+          <t>store/favorite</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>click</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>랭킹</t>
-        </is>
-      </c>
+          <t>scroll</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>channel, page_url, page_id, act_type, click_text, click_type, el_order, os_name</t>
+          <t>channel, page_url, page_id, act_type, scroll_rate, os_name</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Rround, https://store.rround.com/main/home, store/main/home, click, 랭킹, 퀵버튼, 2, Android</t>
+          <t>Rround, https://store.rround.com/favorite?fromMypage=true&amp;tab=goods, store/favorite, scroll, 50, iOS</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -814,7 +806,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>비달사순 2000W 파워 로즈골드 드라이어 VSD5129K</t>
+          <t>바비리스 버터 바 스트레이트너 ST520K</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -824,8 +816,8 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Rround, https://store.rround.com/main/home, store/main/home, click, 비달사순 2000W 파워 로즈골드 드라이어 VSD5129K, 상품, 식품
-, 3, 2/7, 8001, 비달사순 2000W 파워 로즈골드 드라이어 VSD5129K, 최우수판매대리점, 34800원, 22900원, 34%, 무료배송, F, 3, iOS</t>
+          <t>Rround, https://store.rround.com/main/home, store/main/home, click, 바비리스 버터 바 스트레이트너 ST520K, 상품, 식품
+, 5, 1/7, 8038, 바비리스 버터 바 스트레이트너 ST520K, 최우수판매대리점, 59000원, 26000원, 55%, 무료배송, F, 5, iOS</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -854,17 +846,17 @@
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>channel, page_url, page_id, act_type, click_type, tab_name, area_order, prd_code, prd_name, prd_brand, prd_price_origin, prd_price_final, prd_disc_rate, prd_is_ad, el_order, os_name</t>
+          <t>channel, page_url, page_id, act_type, click_type, area_name, tab_name, prd_order, area_order, prd_code, prd_name, prd_brand, prd_price_origin, prd_price_final, prd_disc_rate, prd_review_cnt, prd_review_score, prd_tag, prd_is_ad, el_order, os_name</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Rround, https://store.rround.com/main/home, store/main/home, click, 상품 찜하기, 식품
-, 1/7, 8038, 바비리스 버터 바 스트레이트너 ST520K, 최우수판매대리점, 59000원, 26000원, 55%, F, 5, iOS</t>
+          <t>Rround, https://store.rround.com/main/home, store/main/home, click, 상품 찜하기, 주목할 만한 상품이에요!, 식품
+, 6, 3/7, 636, 비스카 블루투스 스마트 체중계 VK-S2(블랙), 빅픽처코퍼레이션, 26900원, 13900원, 48%, 1, 4, 무료배송, F, 6, iOS</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13">
@@ -946,19 +938,23 @@
           <t>click</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>생활</t>
+        </is>
+      </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>channel, page_url, page_id, act_type, click_type, os_name</t>
+          <t>channel, page_url, page_id, act_type, click_text, click_type, srch_kwd, os_name</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Rround, https://store.rround.com/main/ranking, store/main/ranking, click, 인기검색어, iOS</t>
+          <t>Rround, https://store.rround.com/main/ranking, store/main/ranking, click, 생활, 인기검색어, 생활, iOS</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -1059,22 +1055,22 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>슈즈랙 신발정리대 20p</t>
+          <t>(답이답이다) 베이킹소다 액체 세탁세제 용기 3L 4개</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>channel, page_url, page_id, act_type, click_text, click_type, tab_name, prd_code, prd_name, prd_brand, prd_price_origin, prd_price_final, prd_disc_rate, prd_review_cnt, prd_review_score, prd_is_ad, el_order, os_name</t>
+          <t>channel, page_url, page_id, act_type, click_text, click_type, tab_name, prd_order, prd_code, prd_name, prd_brand, prd_price_origin, prd_price_final, prd_disc_rate, prd_review_cnt, prd_review_score, prd_tag, prd_is_ad, os_name</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Rround, https://store.rround.com/main/ranking, store/main/ranking, click, 슈즈랙 신발정리대 20p, 상품, 홈인테리어
-, 5768, 슈즈랙 신발정리대 20p, Jeepsaram 집사람, 14000원, 11200원, 20%, 3, 5, F, 1, iOS</t>
+          <t>Rround, https://store.rround.com/main/ranking, store/main/ranking, click, (답이답이다) 베이킹소다 액체 세탁세제 용기 3L 4개, 상품, 식품
+, 2, 28, (답이답이다) 베이킹소다 액체 세탁세제 용기 3L 4개, 케이디글로벌, 16900원, 15900원, 5%, 32, 4.5, 무료배송, F, iOS</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19">
@@ -1099,17 +1095,17 @@
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t>channel, page_url, page_id, act_type, click_type, tab_name, prd_code, prd_name, prd_brand, prd_price_origin, prd_price_final, prd_disc_rate, prd_review_cnt, prd_review_score, prd_is_ad, el_order, os_name</t>
+          <t>channel, page_url, page_id, act_type, click_type, tab_name, prd_order, prd_code, prd_name, prd_brand, prd_price_origin, prd_price_final, prd_disc_rate, prd_review_cnt, prd_review_score, prd_tag, prd_is_ad, os_name</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Rround, https://store.rround.com/main/ranking, store/main/ranking, click, 상품 찜하기, 홈인테리어
-, 5768, 슈즈랙 신발정리대 20p, Jeepsaram 집사람, 14000원, 11200원, 20%, 3, 5, F, 1, iOS</t>
+          <t>Rround, https://store.rround.com/main/ranking, store/main/ranking, click, 상품 찜하기, 식품
+, 3, 36, (답이답이다) 제습제 520ml 12개, 케이디글로벌, 12900원, 12200원, 5%, 3, 5, 무료배송, F, iOS</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20">
@@ -1198,16 +1194,16 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>channel, page_url, page_id, act_type, click_text, click_type, area_name, prd_code, prd_name, prd_brand, prd_price_origin, prd_disc_rate, prd_is_ad, os_name</t>
+          <t>channel, page_url, page_id, act_type, click_text, click_type, area_name, prd_order, prd_code, prd_name, prd_brand, prd_price_origin, prd_disc_rate, prd_is_ad, os_name</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Rround, https://store.rround.com/main/deal, store/main/deal, click, [닥터포헤어] 1+1 바이오3 탈모완화 샴푸 500ml, 상품, 무더운 여름 케어의 시작, 8070, [닥터포헤어] 1+1 바이오3 탈모완화 샴푸 500ml, 닥터포헤어, 28900원, 9%, F, iOS</t>
+          <t>Rround, https://store.rround.com/main/deal, store/main/deal, click, [닥터포헤어] 1+1 바이오3 탈모완화 샴푸 500ml, 상품, 무더운 여름 케어의 시작, 2, 8070, [닥터포헤어] 1+1 바이오3 탈모완화 샴푸 500ml, 닥터포헤어, 28900원, 9%, F, iOS</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23">
@@ -1232,16 +1228,16 @@
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>channel, page_url, page_id, act_type, click_type, area_name, prd_code, prd_name, prd_brand, prd_price_origin, prd_disc_rate, prd_is_ad, os_name</t>
+          <t>channel, page_url, page_id, act_type, click_type, area_name, prd_order, prd_code, prd_name, prd_brand, prd_price_origin, prd_disc_rate, prd_is_ad, os_name</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Rround, https://store.rround.com/main/deal, store/main/deal, click, 상품 찜하기, 무더운 여름 케어의 시작, 8070, [닥터포헤어] 1+1 바이오3 탈모완화 샴푸 500ml, 닥터포헤어, 28900원, 9%, F, iOS</t>
+          <t>Rround, https://store.rround.com/main/deal, store/main/deal, click, 상품 찜하기, 무더운 여름 케어의 시작, 3, 8067, [닥터지] 레드 블레미쉬 클리어 수딩토너 기획세트, 닥터지, 18500원, 53%, F, iOS</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24">
@@ -1494,7 +1490,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>store/product/detail/5105</t>
+          <t>store/product/detail/8038</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1519,8 +1515,8 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Rround, https://store.rround.com/product/detail/5105, store/product/detail/5105, click, 구매하기, 구매 버튼, 상품상세
-, 5105, 트리밀데이즈 루테인 밀크씨슬 프리미엄 900mg*30캡슐, 15900원, 10800원, 32%, 0, 0, #한미양행___#CMG제약___#트리밀데이즈___#영양제___#비타민, iOS</t>
+          <t>Rround, https://store.rround.com/product/detail/8038, store/product/detail/8038, click, 구매하기, 구매 버튼, 상품상세
+, 8038, 바비리스 버터 바 스트레이트너 ST520K, 59000원, 26000원, 55%, 0, 0, #고데기___#고대기___#여행용고데기___#미용실고데기___#뿌리볼륨고데기___#가벼운고데기___#스트레이트너___#매직기___#바비리스고데기___#웨이브고데기___#온도조절고데기, iOS</t>
         </is>
       </c>
       <c r="H31" t="n">
@@ -1533,28 +1529,37 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>store/order/payment</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr"/>
+          <t>store/product/detail/8038</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>구매 버튼</t>
+        </is>
+      </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>pageview</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr"/>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>바로 구매하기</t>
+        </is>
+      </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>channel, page_url, referer_url, page_id, act_type, prd_code, prd_name, prd_brand, total_price_origin, total_price_disc, total_price_final, total_delivery_price, use_rrpay_point, rrpay_point, os_name</t>
+          <t>channel, page_url, page_id, act_type, click_text, click_type, tab_name, prd_code, prd_name, prd_price_origin, prd_price_final, prd_disc_rate, prd_review_cnt, prd_review_score, prd_tag, os_name</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Rround, https://store.rround.com/order/payment?selectedCartId=[27035], https://store.rround.com/product/detail/5105, store/order/payment, pageview, 5105, 트리밀데이즈 루테인 밀크씨슬 프리미엄 900mg*30캡슐, 제이앤스토어, 15900원, -5100원, 10800원, 0원, -0원, 51원, iOS</t>
+          <t>Rround, https://store.rround.com/product/detail/8038, store/product/detail/8038, click, 바로 구매하기, 구매 버튼, 상품상세
+, 8038, 바비리스 버터 바 스트레이트너 ST520K, 59000원, 26000원, 55%, 0, 0, #고데기___#고대기___#여행용고데기___#미용실고데기___#뿌리볼륨고데기___#가벼운고데기___#스트레이트너___#매직기___#바비리스고데기___#웨이브고데기___#온도조절고데기, iOS</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33">

--- a/result/log_analysis_combined_no_comma.xlsx
+++ b/result/log_analysis_combined_no_comma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:H88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,28 +481,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>life/feed/rising_hashtag</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
+          <t>store/main/home</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>상단 탭</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>pageview</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr"/>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>홈</t>
+        </is>
+      </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>channel, page_id, act_type</t>
+          <t>channel, page_url, page_id, act_type, click_text, click_type, order, os_name</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Rround, life/feed/rising_hashtag, pageview</t>
+          <t>Rround, https://store.rround.com/main/home, store/main/home, click, 홈, 상단 탭, 1, iOS</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -511,12 +519,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>life/feed/rising_hashtag</t>
+          <t>store/main/home</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>탭</t>
+          <t>하단 GNB</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -526,21 +534,21 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>요즘뜨는#</t>
+          <t>찜</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>channel, page_id, act_type, click_text, click_type</t>
+          <t>channel, page_url, page_id, act_type, click_text, click_type, order, os_name</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Rround, life/feed/rising_hashtag, click, 요즘뜨는#, 탭</t>
+          <t>Rround, https://store.rround.com/main/home, store/main/home, click, 찜, 하단 GNB, 4, Android</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -549,12 +557,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>life/feed/following</t>
+          <t>store/search</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>탭</t>
+          <t>검색 아이콘</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -562,23 +570,19 @@
           <t>click</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>팔로잉</t>
-        </is>
-      </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>channel, page_id, act_type, click_text, click_type</t>
+          <t>channel, page_url, page_id, act_type, click_type, tab_name, os_name</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Rround, life/feed/following, click, 팔로잉, 탭</t>
+          <t>Rround, https://store.rround.com/search, store/search, click, 검색 아이콘, 홈, iOS</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -587,12 +591,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>life/feed/rising_hashtag</t>
+          <t>store/order/cart</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>피드 게시물</t>
+          <t>장바구니 아이콘</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -602,30 +606,30 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve">만보 </t>
+          <t>2</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>channel, page_id, act_type, click_text, click_type</t>
+          <t>channel, page_url, page_id, act_type, click_text, click_type, tab_name, os_name</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Rround, life/feed/rising_hashtag, click, 만보 , 피드 게시물</t>
+          <t>Rround, https://store.rround.com/order/cart, store/order/cart, click, 2, 장바구니 아이콘, 홈, iOS</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>life/feed/discovery</t>
+          <t>store/main/home</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -637,68 +641,60 @@
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
-          <t>channel, page_id, act_type</t>
+          <t>channel, page_url, referer_url, page_id, act_type, os_name</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Rround, life/feed/discovery, pageview</t>
+          <t>Rround, https://store.rround.com/main/home, https://store.rround.com/main/home, store/main/home, pageview, iOS</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>store/favorite</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>scroll</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>channel, page_url, page_id, act_type, scroll_rate, os_name</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/favorite?fromMypage=true&amp;tab=goods, store/favorite, scroll, 50, iOS</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>6</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>life/feed/discovery</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>탭</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>click</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>발견</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>channel, page_id, act_type, click_text, click_type</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Rround, life/feed/discovery, click, 발견, 탭</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>life/feed/following</t>
+          <t>store/main/home</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>탭</t>
+          <t>퀵버튼</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -708,103 +704,99 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>팔로잉</t>
+          <t>랭킹</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>channel, page_id, act_type, click_text, click_type</t>
+          <t>channel, page_url, page_id, act_type, click_text, click_type, el_order, os_name</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Rround, life/feed/following, click, 팔로잉, 탭</t>
+          <t>Rround, https://store.rround.com/main/home, store/main/home, click, 랭킹, 퀵버튼, 2, Android</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>life/feed/following</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>피드 게시물</t>
-        </is>
-      </c>
+          <t>store/main/home</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>click</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>청송산오징어</t>
-        </is>
-      </c>
+          <t>impression</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>channel, page_id, act_type, click_text, click_type</t>
+          <t>channel, page_url, page_id, act_type, banner_position, os_name</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Rround, life/feed/following, click, 청송산오징어, 피드 게시물</t>
+          <t>Rround, https://store.rround.com/main/home, store/main/home, impression, 하단 팝업 배너, iOS</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>life/feed/following</t>
+          <t>store/main/home</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>pageview</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr"/>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>상단 배너이미지</t>
+        </is>
+      </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>channel, page_id, act_type</t>
+          <t>channel, page_url, page_id, act_type, click_text, banner_id, banner_url, banner_position, banner_order, os_name</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Rround, life/feed/following, pageview</t>
+          <t>Rround, https://store.rround.com/main/home, store/main/home, click, 상단 배너이미지, 9, rround://store?category=web&amp;landingType=I&amp;landingUrl=https://store.rround.com/main/exhibition/9, 커머스 메인 상단 배너, 2, iOS</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>life/feed/rising_hashtag</t>
+          <t>store/main/home</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>탭</t>
+          <t>상품</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -814,35 +806,36 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>요즘뜨는#</t>
+          <t>바비리스 버터 바 스트레이트너 ST520K</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>channel, page_id, act_type, click_text, click_type</t>
+          <t>channel, page_url, page_id, act_type, click_text, click_type, tab_name, prd_order, area_order, prd_code, prd_name, prd_brand, prd_price_origin, prd_price_final, prd_disc_rate, prd_tag, prd_is_ad, el_order, os_name</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Rround, life/feed/rising_hashtag, click, 요즘뜨는#, 탭</t>
+          <t>Rround, https://store.rround.com/main/home, store/main/home, click, 바비리스 버터 바 스트레이트너 ST520K, 상품, 식품
+, 5, 1/7, 8038, 바비리스 버터 바 스트레이트너 ST520K, 최우수판매대리점, 59000원, 26000원, 55%, 무료배송, F, 5, iOS</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>life/feed/discovery</t>
+          <t>store/main/home</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>탭</t>
+          <t>상품 찜하기</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -850,32 +843,29 @@
           <t>click</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>발견</t>
-        </is>
-      </c>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>channel, page_id, act_type, click_text, click_type</t>
+          <t>channel, page_url, page_id, act_type, click_type, area_name, tab_name, prd_order, area_order, prd_code, prd_name, prd_brand, prd_price_origin, prd_price_final, prd_disc_rate, prd_review_cnt, prd_review_score, prd_tag, prd_is_ad, el_order, os_name</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Rround, life/feed/discovery, click, 발견, 탭</t>
+          <t>Rround, https://store.rround.com/main/home, store/main/home, click, 상품 찜하기, 주목할 만한 상품이에요!, 식품
+, 6, 3/7, 636, 비스카 블루투스 스마트 체중계 VK-S2(블랙), 빅픽처코퍼레이션, 26900원, 13900원, 48%, 1, 4, 무료배송, F, 6, iOS</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>life/feed/following</t>
+          <t>store/main/ranking</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -887,68 +877,60 @@
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>channel, page_id, act_type</t>
+          <t>channel, page_url, referer_url, page_id, act_type, os_name</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Rround, life/feed/following, pageview</t>
+          <t>Rround, https://store.rround.com/main/ranking, https://store.rround.com/main/home, store/main/ranking, pageview, iOS</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>life/feed/profile/collection</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>탭</t>
-        </is>
-      </c>
+          <t>store/main/ranking</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>click</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>컬렉션</t>
-        </is>
-      </c>
+          <t>scroll</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>channel, page_id, act_type, click_text, click_type</t>
+          <t>channel, page_url, page_id, act_type, area_name, os_name</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Rround, life/feed/profile/collection, click, 컬렉션, 탭</t>
+          <t>Rround, https://store.rround.com/main/ranking, store/main/ranking, scroll, 카테고리, iOS</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>life/feed/profile/review</t>
+          <t>store/main/ranking</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>탭</t>
+          <t>인기검색어</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -958,35 +940,35 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>리뷰</t>
+          <t>생활</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>channel, page_id, act_type, click_text, click_type</t>
+          <t>channel, page_url, page_id, act_type, click_text, click_type, srch_kwd, os_name</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Rround, life/feed/profile/review, click, 리뷰, 탭</t>
+          <t>Rround, https://store.rround.com/main/ranking, store/main/ranking, click, 생활, 인기검색어, 생활, iOS</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> life/feed/profile/feed</t>
+          <t>store/main/ranking</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>피드 게시물</t>
+          <t>카테고리 탭</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -994,63 +976,76 @@
           <t>click</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>홈인테리어</t>
+        </is>
+      </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>channel, page_id, act_type, click_type</t>
+          <t>channel, page_url, page_id, act_type, click_text, click_type, tab_name, os_name</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Rround,  life/feed/profile/feed, click, 피드 게시물</t>
+          <t>Rround, https://store.rround.com/main/ranking, store/main/ranking, click, 홈인테리어, 카테고리 탭, 홈인테리어
+, iOS</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>life/feed/profile/collection</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
+          <t>store/main/ranking</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>칩버튼</t>
+        </is>
+      </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>pageview</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr"/>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>전체 / 전체</t>
+        </is>
+      </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>channel, page_id, act_type</t>
+          <t>channel, page_url, page_id, act_type, click_text, click_type, os_name</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Rround, life/feed/profile/collection, pageview</t>
+          <t>Rround, https://store.rround.com/main/ranking, store/main/ranking, click, 전체 / 전체, 칩버튼, iOS</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> life/feed/profile/feed</t>
+          <t>store/main/ranking</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>탭</t>
+          <t>상품</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1060,35 +1055,36 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>피드</t>
+          <t>(답이답이다) 베이킹소다 액체 세탁세제 용기 3L 4개</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>channel, page_id, act_type, click_text, click_type</t>
+          <t>channel, page_url, page_id, act_type, click_text, click_type, tab_name, prd_order, prd_code, prd_name, prd_brand, prd_price_origin, prd_price_final, prd_disc_rate, prd_review_cnt, prd_review_score, prd_tag, prd_is_ad, os_name</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Rround,  life/feed/profile/feed, click, 피드, 탭</t>
+          <t>Rround, https://store.rround.com/main/ranking, store/main/ranking, click, (답이답이다) 베이킹소다 액체 세탁세제 용기 3L 4개, 상품, 식품
+, 2, 28, (답이답이다) 베이킹소다 액체 세탁세제 용기 3L 4개, 케이디글로벌, 16900원, 15900원, 5%, 32, 4.5, 무료배송, F, iOS</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>life/feed/profile/review</t>
+          <t>store/main/ranking</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>탭</t>
+          <t>상품 찜하기</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1096,101 +1092,94 @@
           <t>click</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>리뷰</t>
-        </is>
-      </c>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t>channel, page_id, act_type, click_text, click_type</t>
+          <t>channel, page_url, page_id, act_type, click_type, tab_name, prd_order, prd_code, prd_name, prd_brand, prd_price_origin, prd_price_final, prd_disc_rate, prd_review_cnt, prd_review_score, prd_tag, prd_is_ad, os_name</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Rround, life/feed/profile/review, click, 리뷰, 탭</t>
+          <t>Rround, https://store.rround.com/main/ranking, store/main/ranking, click, 상품 찜하기, 식품
+, 3, 36, (답이답이다) 제습제 520ml 12개, 케이디글로벌, 12900원, 12200원, 5%, 3, 5, 무료배송, F, iOS</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> life/feed/profile/feed</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>피드 게시물</t>
-        </is>
-      </c>
+          <t>store/main/deal</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
-          <t>click</t>
+          <t>pageview</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
-          <t>channel, page_id, act_type, click_type</t>
+          <t>channel, page_url, referer_url, page_id, act_type, os_name</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Rround,  life/feed/profile/feed, click, 피드 게시물</t>
+          <t>Rround, https://store.rround.com/main/deal, https://store.rround.com/main/ranking, store/main/deal, pageview, iOS</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>life/feed/profile/review</t>
+          <t>store/main/deal</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
         <is>
-          <t>pageview</t>
+          <t>scroll</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
-          <t>channel, page_id, act_type</t>
+          <t>channel, page_url, page_id, act_type, scroll_rate, os_name</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Rround, life/feed/profile/review, pageview</t>
+          <t>Rround, https://store.rround.com/main/deal, store/main/deal, scroll, 25, iOS</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> life/feed/profile/feed</t>
+          <t>store/main/deal</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>탭</t>
+          <t>상품</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1200,35 +1189,35 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>피드</t>
+          <t>[닥터포헤어] 1+1 바이오3 탈모완화 샴푸 500ml</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>channel, page_id, act_type, click_text, click_type</t>
+          <t>channel, page_url, page_id, act_type, click_text, click_type, area_name, prd_order, prd_code, prd_name, prd_brand, prd_price_origin, prd_disc_rate, prd_is_ad, os_name</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Rround,  life/feed/profile/feed, click, 피드, 탭</t>
+          <t>Rround, https://store.rround.com/main/deal, store/main/deal, click, [닥터포헤어] 1+1 바이오3 탈모완화 샴푸 500ml, 상품, 무더운 여름 케어의 시작, 2, 8070, [닥터포헤어] 1+1 바이오3 탈모완화 샴푸 500ml, 닥터포헤어, 28900원, 9%, F, iOS</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>life/feed/profile/collection</t>
+          <t>store/main/deal</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>탭</t>
+          <t>상품 찜하기</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1236,75 +1225,63 @@
           <t>click</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>컬렉션</t>
-        </is>
-      </c>
+      <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>channel, page_id, act_type, click_text, click_type</t>
+          <t>channel, page_url, page_id, act_type, click_type, area_name, prd_order, prd_code, prd_name, prd_brand, prd_price_origin, prd_disc_rate, prd_is_ad, os_name</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Rround, life/feed/profile/collection, click, 컬렉션, 탭</t>
+          <t>Rround, https://store.rround.com/main/deal, store/main/deal, click, 상품 찜하기, 무더운 여름 케어의 시작, 3, 8067, [닥터지] 레드 블레미쉬 클리어 수딩토너 기획세트, 닥터지, 18500원, 53%, F, iOS</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>life/feed/profile/review</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>리뷰 상품</t>
-        </is>
-      </c>
+          <t>store/main/exhibition</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
         <is>
-          <t>click</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>[산해직송] 스테비아 방울토마토 대추 방울토마토 500g 1팩 2팩</t>
-        </is>
-      </c>
+          <t>scroll</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>channel, page_id, act_type, click_text, click_type</t>
+          <t>channel, page_url, page_id, act_type, scroll_rate, os_name</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Rround, life/feed/profile/review, click, [산해직송] 스테비아 방울토마토 대추 방울토마토 500g 1팩 2팩, 리뷰 상품</t>
+          <t>Rround, https://store.rround.com/main/exhibition, store/main/exhibition, scroll, 25, iOS</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>life/feed/profile/review</t>
+          <t>store/main/exhibition/9</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>리뷰 콘텐츠</t>
+          <t>기획전 리스트</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1314,34 +1291,30 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>다이어트 하려고 방울토마토 주문했는데
-배송도 빨리오고 완전 맛있네요!
-재구매 의사 100% 입니다!!!</t>
+          <t>너의 하루에 스며든 작은 여유</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>channel, page_id, act_type, click_text, click_type, prd_review_score, prd_review_id</t>
+          <t>channel, page_url, page_id, act_type, click_text, click_type, exh_id, exh_name, banner_id, exh_tag, os_name</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Rround, life/feed/profile/review, click, 다이어트 하려고 방울토마토 주문했는데
-배송도 빨리오고 완전 맛있네요!
-재구매 의사 100% 입니다!!!, 리뷰 콘텐츠, 5, ditLNnl3a09qUlBlajN0SmlSZWNNUT09</t>
+          <t>Rround, https://store.rround.com/main/exhibition/9, store/main/exhibition/9, click, 너의 하루에 스며든 작은 여유, 기획전 리스트, 9, 너의 하루에 스며든 작은 여유, 9, #비스카 #주방용품# #식기 #그릇 #냄비, iOS</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>life/feed/profile/recommend</t>
+          <t>store/main/exhibition/9</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -1353,30 +1326,30 @@
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>channel, page_id, act_type</t>
+          <t>channel, page_url, referer_url, page_id, act_type, exh_id, exh_name, os_name</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Rround, life/feed/profile/recommend, pageview</t>
+          <t>Rround, https://store.rround.com/main/exhibition/9, https://store.rround.com/main/exhibition/9, store/main/exhibition/9, pageview, 9, 너의 하루에 스며든 작은 여유, iOS</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> life/feed/profile/feed</t>
+          <t>store/main/exhibition</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>탭</t>
+          <t>더보기</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1386,35 +1359,35 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>피드</t>
+          <t>기획전 구경하러 가기</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>channel, page_id, act_type, click_text, click_type</t>
+          <t>channel, page_url, page_id, act_type, click_text, click_type, os_name</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Rround,  life/feed/profile/feed, click, 피드, 탭</t>
+          <t>Rround, https://store.rround.com/main/exhibition, store/main/exhibition, click, 기획전 구경하러 가기, 더보기, iOS</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>life/feed/profile/collection</t>
+          <t>store/main/exhibition/9</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>탭</t>
+          <t>필터</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1424,35 +1397,35 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>컬렉션</t>
+          <t>필터</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>channel, page_id, act_type, click_text, click_type</t>
+          <t>channel, page_url, page_id, act_type, click_text, click_type, os_name</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Rround, life/feed/profile/collection, click, 컬렉션, 탭</t>
+          <t>Rround, https://store.rround.com/main/exhibition/9, store/main/exhibition/9, click, 필터, 필터, iOS</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>life/feed/profile/review</t>
+          <t>store/main/exhibition/9</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>탭</t>
+          <t>카테고리 탭</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1462,73 +1435,67 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>리뷰</t>
+          <t>생활가전</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>channel, page_id, act_type, click_text, click_type</t>
+          <t>channel, page_url, page_id, act_type, click_text, click_type, tab_name, os_name</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Rround, life/feed/profile/review, click, 리뷰, 탭</t>
+          <t>Rround, https://store.rround.com/main/exhibition/9, store/main/exhibition/9, click, 생활가전, 카테고리 탭, 생활가전
+, iOS</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>life/feed/profile/recommend</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>상품 태그</t>
-        </is>
-      </c>
+          <t>store/product/detail/5105</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr">
         <is>
-          <t>click</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>펫코노미 강아지 스웨이드 하네스 세트</t>
-        </is>
-      </c>
+          <t>pageview</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>channel, page_id, act_type, click_text, click_type</t>
+          <t>channel, page_url, referer_url, page_id, act_type, tab_name, prd_code, prd_name, prd_brand, prd_price_origin, prd_price_final, prd_disc_rate, prd_review_cnt, prd_review_score, prd_tag, os_name</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Rround, life/feed/profile/recommend, click, 펫코노미 강아지 스웨이드 하네스 세트, 상품 태그</t>
+          <t>Rround, https://store.rround.com/product/detail/5105, https://store.rround.com/product/detail/5105, store/product/detail/5105, pageview, 상품상세
+, 5105, 트리밀데이즈 루테인 밀크씨슬 프리미엄 900mg*30캡슐, 제이앤스토어, 15900원, 10800원, 32%, 0, 0, #한미양행___#CMG제약___#트리밀데이즈___#영양제___#비타민, iOS</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>life/feed/profile/recommend</t>
+          <t>store/product/detail/8038</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>게시물 TEXT 더보기</t>
+          <t>구매 버튼</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1538,65 +1505,75 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>더보기</t>
+          <t>구매하기</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>channel, page_id, act_type, click_text, click_type</t>
+          <t>channel, page_url, page_id, act_type, click_text, click_type, tab_name, prd_code, prd_name, prd_price_origin, prd_price_final, prd_disc_rate, prd_review_cnt, prd_review_score, prd_tag, os_name</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Rround, life/feed/profile/recommend, click, 더보기, 게시물 TEXT 더보기</t>
+          <t>Rround, https://store.rround.com/product/detail/8038, store/product/detail/8038, click, 구매하기, 구매 버튼, 상품상세
+, 8038, 바비리스 버터 바 스트레이트너 ST520K, 59000원, 26000원, 55%, 0, 0, #고데기___#고대기___#여행용고데기___#미용실고데기___#뿌리볼륨고데기___#가벼운고데기___#스트레이트너___#매직기___#바비리스고데기___#웨이브고데기___#온도조절고데기, iOS</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>life/feed/post/detail</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr"/>
+          <t>store/product/detail/8038</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>구매 버튼</t>
+        </is>
+      </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>impression</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr"/>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>바로 구매하기</t>
+        </is>
+      </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>channel, page_id, act_type, ad_id</t>
+          <t>channel, page_url, page_id, act_type, click_text, click_type, tab_name, prd_code, prd_name, prd_price_origin, prd_price_final, prd_disc_rate, prd_review_cnt, prd_review_score, prd_tag, os_name</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Rround, life/feed/post/detail, impression, ojKwqEb6kbFj9Yc</t>
+          <t>Rround, https://store.rround.com/product/detail/8038, store/product/detail/8038, click, 바로 구매하기, 구매 버튼, 상품상세
+, 8038, 바비리스 버터 바 스트레이트너 ST520K, 59000원, 26000원, 55%, 0, 0, #고데기___#고대기___#여행용고데기___#미용실고데기___#뿌리볼륨고데기___#가벼운고데기___#스트레이트너___#매직기___#바비리스고데기___#웨이브고데기___#온도조절고데기, iOS</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>life/feed/post/detail</t>
+          <t>store/product/detail/508</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>광고</t>
+          <t>장바구니 버튼</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1606,73 +1583,67 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>ojKwqEb6kbFj9Yc</t>
+          <t>장바구니 담기</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>channel, page_id, act_type, click_text, click_type</t>
+          <t>channel, page_url, page_id, act_type, click_text, click_type, tab_name, prd_code, prd_name, prd_price_origin, prd_price_final, prd_disc_rate, prd_review_cnt, prd_review_score, prd_tag, os_name</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Rround, life/feed/post/detail, click, ojKwqEb6kbFj9Yc, 광고</t>
+          <t>Rround, https://store.rround.com/product/detail/508, store/product/detail/508, click, 장바구니 담기, 장바구니 버튼, 상품상세
+, 508, [코오롱제약] 알티지오메가3 멀티플러스 (1023mg*30캡슐), 70000원, 10900원, 84%, 28, 4.8, #오메가3___#알티지오메가___#코오롱제약___#식품___#영양제___#캡슐___#멀티플러스___#건강식품, iOS</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>life/feed/post/detail</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>상품 태그</t>
-        </is>
-      </c>
+          <t>store/product/detail/5105</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
-          <t>click</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>[주당의비결] 음주전후 마시는 숙취해소제 숙취해소 음료 100ml x 10병</t>
-        </is>
-      </c>
+          <t>pageview</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>channel, page_id, act_type, click_text, click_type</t>
+          <t>channel, page_url, referer_url, page_id, act_type, tab_name, prd_code, prd_name, prd_brand, prd_price_origin, prd_disc_rate, prd_review_cnt, prd_review_score, prd_tag, os_name</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Rround, life/feed/post/detail, click, [주당의비결] 음주전후 마시는 숙취해소제 숙취해소 음료 100ml x 10병, 상품 태그</t>
+          <t>Rround, https://store.rround.com/product/detail/5105, https://store.rround.com/product/detail/5105, store/product/detail/5105, pageview, 리뷰 
+, 5105, 트리밀데이즈 루테인 밀크씨슬 프리미엄 900mg*30캡슐, 제이앤스토어, 15900원, 32%, 0, 0, #한미양행___#CMG제약___#트리밀데이즈___#영양제___#비타민, iOS</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>life/feed/post/detail</t>
+          <t>store/product/detail/4513</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>챌린지 태그</t>
+          <t>상품</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1682,35 +1653,36 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>오늘 날씨 공유하기</t>
+          <t>[코오롱제약] 알티지오메가3 멀티플러스 (1023mg*30캡슐)</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>channel, page_id, act_type, click_text, click_type</t>
+          <t>channel, page_url, page_id, act_type, click_text, click_type, area_name, tab_name, prd_code, prd_name, prd_brand, prd_price_origin, prd_price_final, prd_disc_rate, prd_review_cnt, prd_review_score, prd_is_ad, el_order, os_name</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Rround, life/feed/post/detail, click, 오늘 날씨 공유하기, 챌린지 태그</t>
+          <t>Rround, https://store.rround.com/product/detail/4513, store/product/detail/4513, click, [코오롱제약] 알티지오메가3 멀티플러스 (1023mg*30캡슐), 상품, 같이 둘러볼만한 다양한 스토어 상품 추천드려요, 상품상세
+, 508, [코오롱제약] 알티지오메가3 멀티플러스 (1023mg*30캡슐), BIZLINE, 70000원, 10900원, 84%, 28, 4.8, F, 2, iOS</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>life/feed/post/detail</t>
+          <t>store/product/detail/5105</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>게시물 TEXT 더보기</t>
+          <t>상품 찜하기</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1718,39 +1690,32 @@
           <t>click</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>더보기</t>
-        </is>
-      </c>
+      <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
-          <t>channel, page_id, act_type, click_text, click_type</t>
+          <t>channel, page_url, page_id, act_type, click_type, tab_name, prd_code, prd_name, prd_price_origin, prd_price_final, prd_disc_rate, prd_review_cnt, prd_review_score, prd_tag, os_name</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Rround, life/feed/post/detail, click, 더보기, 게시물 TEXT 더보기</t>
+          <t>Rround, https://store.rround.com/product/detail/5105, store/product/detail/5105, click, 상품 찜하기, 상품상세
+, 5105, 트리밀데이즈 루테인 밀크씨슬 프리미엄 900mg*30캡슐, 15900원, 10800원, 32%, 0, 0, #한미양행___#CMG제약___#트리밀데이즈___#영양제___#비타민, iOS</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>life/feed/post/detail</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>세차장 위치 버튼</t>
-        </is>
-      </c>
+          <t>store/store/jncorp</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
         <is>
           <t>click</t>
@@ -1758,37 +1723,33 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>스팀파워 미아점 세차장</t>
+          <t>제이앤스토어관심 고객0</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>channel, page_id, act_type, click_text, click_type</t>
+          <t>channel, page_url, page_id, act_type, click_text, area_name, store_id, store_name, os_name</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Rround, life/feed/post/detail, click, 스팀파워 미아점 세차장, 세차장 위치 버튼</t>
+          <t>Rround, https://store.rround.com/store/jncorp, store/store/jncorp, click, 제이앤스토어관심 고객0, 라운드에서 지금 추천하는 스토어, jncorp, 제이앤스토어, iOS</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>life/feed/post/detail</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>바로가기</t>
-        </is>
-      </c>
+          <t>store/product/detail/508</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr">
         <is>
           <t>click</t>
@@ -1796,35 +1757,36 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>픽딜 바로가기</t>
+          <t>리뷰 사진</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>channel, page_id, act_type, click_text, click_type</t>
+          <t>channel, page_url, page_id, act_type, click_text, tab_name, prd_code, prd_name, prd_price_origin, prd_price_final, prd_disc_rate, prd_review_cnt, prd_review_score, prd_tag, os_name</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Rround, life/feed/post/detail, click, 픽딜 바로가기, 바로가기</t>
+          <t>Rround, https://store.rround.com/product/detail/508, store/product/detail/508, click, 리뷰 사진, 상품상세
+, 508, [코오롱제약] 알티지오메가3 멀티플러스 (1023mg*30캡슐), 70000원, 10900원, 84%, 28, 4.8, #오메가3___#알티지오메가___#코오롱제약___#식품___#영양제___#캡슐___#멀티플러스___#건강식품, iOS</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>life/feed/post/detail</t>
+          <t>store/product/detail/508</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>바로가기</t>
+          <t>리뷰</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1834,89 +1796,1730 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>휘슬 세차 바로가기</t>
+          <t>리뷰 이미지 1</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>channel, page_id, act_type, click_text, click_type</t>
+          <t>channel, page_url, page_id, act_type, click_text, click_type, area_name, tab_name, prd_code, prd_name, prd_price_origin, prd_price_final, prd_disc_rate, prd_review_score, prd_tag, os_name</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Rround, life/feed/post/detail, click, 휘슬 세차 바로가기, 바로가기</t>
+          <t>Rround, https://store.rround.com/product/detail/508, store/product/detail/508, click, 리뷰 이미지 1, 리뷰, 전체 리뷰, 리뷰 
+, 508, [코오롱제약] 알티지오메가3 멀티플러스 (1023mg*30캡슐), 70000원, 10900원, 84%, 5, #오메가3___#알티지오메가___#코오롱제약___#식품___#영양제___#캡슐___#멀티플러스___#건강식품, iOS</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>life/feed/post/detail</t>
+          <t>store/product/detail/8038</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr">
         <is>
-          <t>impression</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr"/>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>상품 문의 작성하기</t>
+        </is>
+      </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>channel, page_id, act_type, ad_id</t>
+          <t>channel, page_url, page_id, act_type, click_text, tab_name, prd_code, prd_name, prd_price_origin, prd_price_final, prd_disc_rate, prd_review_cnt, prd_review_score, prd_tag, os_name</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Rround, life/feed/post/detail, impression, ojKwqEb6kbFj9Yc</t>
+          <t>Rround, https://store.rround.com/product/detail/8038, store/product/detail/8038, click, 상품 문의 작성하기, 상품문의 
+, 8038, 바비리스 버터 바 스트레이트너 ST520K, 59000원, 26000원, 55%, 0, 0, #고데기___#고대기___#여행용고데기___#미용실고데기___#뿌리볼륨고데기___#가벼운고데기___#스트레이트너___#매직기___#바비리스고데기___#웨이브고데기___#온도조절고데기, iOS</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>life/feed/post/detail</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>광고</t>
-        </is>
-      </c>
+          <t>store/order/cart</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr">
         <is>
-          <t>click</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>ojKwqEb6kbFj9Yc</t>
-        </is>
-      </c>
+          <t>pageview</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>channel, page_id, act_type, click_text, click_type</t>
+          <t>channel, page_url, referer_url, page_id, act_type, prd_code, os_name</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Rround, life/feed/post/detail, click, ojKwqEb6kbFj9Yc, 광고</t>
+          <t>Rround, https://store.rround.com/order/cart, https://store.rround.com/product/detail/8038, store/order/cart, pageview, 508, iOS</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>5</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>63</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>store/order/cart</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>구매 버튼</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>48200원 구매하기</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>channel, page_url, page_id, act_type, click_text, click_type, prd_code, prd_name, prd_brand, prd_price_final, delivery_price, total_price_origin, total_price_disc, total_price_final, total_delivery_price, os_name</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/order/cart, store/order/cart, click, 48200원 구매하기, 구매 버튼, 6896___6897, [비타그램] 말랑말랑 보들 좌욕기 VG-PB0823___[비타그램] 면황토 아로마 냉온 찜질팩 3종세트 (허리/다용도사각/목어깨), 진인프라___진인프라, 9800원___38400원, 0원, 70000원, -21800원, 48200원, 0원, iOS</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>65</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>store/order/cart</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>상품</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>[비타그램] 면황토 아로마 냉온 찜질팩 3종세트 (허리/다용도사각/목어깨)</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>channel, page_url, page_id, act_type, click_text, click_type, prd_code, prd_name, prd_brand, prd_price_origin, prd_price_final, prd_disc_rate, prd_is_ad, os_name</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/order/cart, store/order/cart, click, [비타그램] 면황토 아로마 냉온 찜질팩 3종세트 (허리/다용도사각/목어깨), 상품, 6897, [비타그램] 면황토 아로마 냉온 찜질팩 3종세트 (허리/다용도사각/목어깨), 진인프라, 50000원, 38400원, 23%, F, iOS</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>66</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>store/order/cart</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>상품 찜하기</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>channel, page_url, page_id, act_type, click_type, prd_code, prd_name, prd_brand, prd_price_origin, prd_price_final, prd_disc_rate, prd_is_ad, os_name</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/order/cart, store/order/cart, click, 상품 찜하기, 6828, [테팔] 에센셜 포켓 드라이기 HV1515, MallRaon, 50000원, 23000원, 54%, F, iOS</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>68</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>store/order/payment</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>48200원 결제하기</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>channel, page_url, page_id, act_type, click_text, prd_code, prd_brand, total_price_origin, total_price_disc, total_price_final, total_delivery_price, use_rrpay_point, rrpay_point, os_name</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/order/payment?selectedCartId=[2757627564], store/order/payment, click, 48200원 결제하기, 6896___6897, 진인프라___진인프라, 70000원, -21800원, 48200원, 0원, -0원, 51원, iOS</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>71</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>store/search</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>pageview</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>channel, page_url, referer_url, page_id, act_type, srch_kwd, os_name</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/search, https://store.rround.com/main/home, store/search, pageview, 비스카 특가 구경하기!, iOS</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>72</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>store/search</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>검색 아이콘</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>channel, page_url, page_id, act_type, click_type, srch_kwd, srch_kwd_type, os_name</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/search, store/search, click, 검색 아이콘, 사과, 수동검색어, iOS</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>74</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>store/search</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>추천검색어</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>마스크팩</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>channel, page_url, page_id, act_type, click_text, click_type, area_name, os_name</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/search, store/search, click, 마스크팩, 추천검색어, 추천 검색어, iOS</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>79</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>store/search/result</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>pageview</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>channel, page_url, referer_url, page_id, act_type, srch_kwd, os_name</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/search/result?keyword=사과, https://store.rround.com/search, store/search/result, pageview, 사과, iOS</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>80</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>store/search/result</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>검색 아이콘</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>channel, page_url, page_id, act_type, click_type, srch_kwd, srch_kwd_type, os_name</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/search/result?keyword=수박, store/search/result, click, 검색 아이콘, 수박, 수동검색어, iOS</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>81</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>store/search/result</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>연관검색어</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>맛있는수박</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>channel, page_url, page_id, act_type, click_text, click_type, srch_kwd, os_name</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/search/result?keyword=맛있는수박, store/search/result, click, 맛있는수박, 연관검색어, 맛있는수박, iOS</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>83</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>store/search/result</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>칩버튼</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>행복한하루</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>channel, page_url, page_id, act_type, click_text, click_type, area_name, os_name</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/search/result?keyword=맛있는수박, store/search/result, click, 행복한하루, 칩버튼, 라운드8H4FFH님을 위한 맞춤 정보, iOS</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>84</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>store/search/result</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>상품</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>[산해직송] 꿀단지 수박 고당도 정품 4kg 5kg 외</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>channel, page_url, page_id, act_type, click_text, click_type, area_name, tab_name, prd_code, prd_name, prd_brand, prd_price_origin, prd_disc_rate, prd_is_ad, el_order, os_name</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/search/result?keyword=수박, store/search/result, click, [산해직송] 꿀단지 수박 고당도 정품 4kg 5kg 외, 상품, 라운드8H4FFH님을 위한 맞춤 정보, For you
+, 7950, [산해직송] 꿀단지 수박 고당도 정품 4kg 5kg 외, 산해직송, 14900원, 62%, F, 1, iOS</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>85</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>store/search/result</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>상품 찜하기</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>channel, page_url, page_id, act_type, click_type, area_name, tab_name, prd_code, prd_name, prd_brand, prd_price_origin, prd_disc_rate, prd_is_ad, el_order, os_name</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/search/result?keyword=맛있는수박, store/search/result, click, 상품 찜하기, 라운드8H4FFH님을 위한 맞춤 정보, 행복한하루
+, 2989, 산지직송 고당도 프리미엄 수박(정품), 행복한하루, 19800원, 59%, F, 2, iOS</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>89</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>store/search/result</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>필터</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>필터</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>channel, page_url, page_id, act_type, click_text, click_type, os_name</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/search/result?keyword=맛있는수박, store/search/result, click, 필터, 필터, iOS</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>90</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>store/category</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>pageview</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>channel, page_url, referer_url, page_id, act_type, os_name</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/category, https://store.rround.com/main/home, store/category, pageview, iOS</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>91</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>store/category/detail/9</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>대카테고리</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>홈인테리어</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>channel, page_url, page_id, act_type, click_text, click_type, ctgr_id, ctgr_depth1, os_name</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/category/detail/9, store/category/detail/9, click, 홈인테리어, 대카테고리, 9, 식품, iOS</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>92</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>store/category/detail/27</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>중카테고리</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>수납/정리</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>channel, page_url, page_id, act_type, click_text, click_type, ctgr_id, ctgr_depth1, ctgr_depth2, ctgr_depth3, os_name</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/category/detail/27, store/category/detail/27, click, 수납/정리, 중카테고리, 27, 식품, 수납/정리, 수납/정리, iOS</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>93</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>store/category/detail/9</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>pageview</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>channel, page_url, referer_url, page_id, act_type, ctgr_id, os_name</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/category/detail/9, https://store.rround.com/category, store/category/detail/9, pageview, 9, iOS</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>94</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>store/category/detail/7</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>카테고리 더보기</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>카테고리 더보기</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>channel, page_url, page_id, act_type, click_text, click_type, ctgr_depth1, os_name</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/category/detail/7, store/category/detail/7, click, 카테고리 더보기, 카테고리 더보기, 식품, iOS</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>95</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>store/category/detail/7</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>중카테고리</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>선물세트</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>channel, page_url, page_id, act_type, click_text, click_type, ctgr_depth1, os_name</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/category/detail/7, store/category/detail/7, click, 선물세트, 중카테고리, 식품, iOS</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>96</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>store/product/detail/3703</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>pageview</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>channel, page_url, referer_url, page_id, act_type, tab_name, prd_code, prd_name, prd_brand, prd_price_origin, prd_price_final, prd_disc_rate, prd_review_cnt, prd_review_score, prd_tag, os_name</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/product/detail/3703, https://store.rround.com/product/detail/641, store/product/detail/3703, pageview, 상품상세
+, 3703, [동원] 고추참치 150g x 8캔, 이지앤웰스, 22400원, 20200원, 9%, 3, 5, #동원___#식품___#캔___#고추참치___#참치___#연어___#통조림, iOS</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>97</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>store/category/detail/7</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>상품 찜하기</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>channel, page_url, page_id, act_type, click_type, area_name, ctgr_depth1, prd_code, prd_name, prd_brand, prd_price_origin, prd_price_final, prd_disc_rate, prd_review_cnt, prd_review_score, prd_is_ad, os_name</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/category/detail/7, store/category/detail/7, click, 상품 찜하기, 라운드8H4FFH님을 위한 추천 상품, 식품, 4665, [에브리워터] 에브리워터 2lx6팩, 이지앤웰스, 5900원, 3600원, 38%, 294, 4.9, F, iOS</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>98</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>store/category/detail/7</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>필터</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>혜택</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>channel, page_url, page_id, act_type, click_text, click_type, ctgr_depth1, os_name</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/category/detail/7, store/category/detail/7, click, 혜택, 필터, 식품, iOS</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>99</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>store/category/detail/27</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>pageview</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>channel, page_url, referer_url, page_id, act_type, ctgr_id, os_name</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/category/detail/27, https://store.rround.com/category, store/category/detail/27, pageview, 27, iOS</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>100</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>store/category/detail/31</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>소카테고리</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>메이크업</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>channel, page_url, page_id, act_type, click_text, click_type, ctgr_depth1, ctgr_depth2, os_name</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/category/detail/31, store/category/detail/31, click, 메이크업, 소카테고리, 뷰티, 스킨케어, iOS</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>101</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>store/category/detail/19</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>상품</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>[설수련] 진 한방농축 5종세트</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>channel, page_url, page_id, act_type, click_text, click_type, area_name, ctgr_depth1, ctgr_depth2, prd_code, prd_name, prd_brand, prd_price_origin, prd_price_final, prd_disc_rate, prd_is_ad, os_name</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/category/detail/19, store/category/detail/19, click, [설수련] 진 한방농축 5종세트, 상품, 라운드8H4FFH님을 위한 추천 상품, 뷰티, 선물세트, 5323, [설수련] 진 한방농축 5종세트, 살라망카, 99000원, 15900원, 83%, F, iOS</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>102</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>store/category/detail/19</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>상품 찜하기</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>channel, page_url, page_id, act_type, click_type, area_name, ctgr_depth1, ctgr_depth2, prd_code, prd_name, prd_brand, prd_price_origin, prd_price_final, prd_disc_rate, prd_is_ad, os_name</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/category/detail/19, store/category/detail/19, click, 상품 찜하기, 라운드8H4FFH님을 위한 추천 상품, 뷰티, 선물세트, 5001, 밀크 바디세트 퍼퓸드 가브리엘 머스크 (바디워시 500g+바디로션 500g), 바틀 스토어, 69000원, 14700원, 78%, F, iOS</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>103</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>store/category/detail/19</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>필터</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>브랜드</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>channel, page_url, page_id, act_type, click_text, click_type, ctgr_depth1, ctgr_depth2, os_name</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/category/detail/19, store/category/detail/19, click, 브랜드, 필터, 뷰티, 선물세트, iOS</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>104</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>store/category/detail/31</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>pageview</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>channel, page_url, referer_url, page_id, act_type, ctgr_id, os_name</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/category/detail/31, https://store.rround.com/category/detail/31, store/category/detail/31, pageview, 31, iOS</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>105</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>store/category/detail/31</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>소카테고리</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>스킨케어</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>channel, page_url, page_id, act_type, click_text, click_type, ctgr_depth1, ctgr_depth2, os_name</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/category/detail/31, store/category/detail/31, click, 스킨케어, 소카테고리, 뷰티, 스킨케어, iOS</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>106</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>store/category/detail/31</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>상품</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>[AHC] 아우라 시크릿 톤업크림 스페셜 기획세트</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>channel, page_url, page_id, act_type, click_text, click_type, area_name, ctgr_depth1, ctgr_depth2, prd_code, prd_name, prd_brand, prd_price_origin, prd_price_final, prd_disc_rate, prd_review_cnt, prd_review_score, prd_is_ad, os_name</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/category/detail/31, store/category/detail/31, click, [AHC] 아우라 시크릿 톤업크림 스페셜 기획세트, 상품, 라운드8H4FFH님을 위한 추천 상품, 뷰티, 메이크업, 4780, [AHC] 아우라 시크릿 톤업크림 스페셜 기획세트, 살라망카, 32000원, 21900원, 31%, 2, 5, F, iOS</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>107</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>store/category/detail/31</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>상품 찜하기</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>channel, page_url, page_id, act_type, click_type, area_name, ctgr_depth1, ctgr_depth2, prd_code, prd_name, prd_brand, prd_price_origin, prd_price_final, prd_disc_rate, prd_review_cnt, prd_review_score, prd_is_ad, os_name</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/category/detail/31, store/category/detail/31, click, 상품 찜하기, 라운드8H4FFH님을 위한 추천 상품, 뷰티, 메이크업, 4209, 365 썬BB크림 50ml(1+1), 타임세일, 50000원, 9900원, 80%, 13, 4.7, F, iOS</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>108</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>store/category/detail/31</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>필터</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>혜택</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>channel, page_url, page_id, act_type, click_text, click_type, ctgr_depth1, ctgr_depth2, os_name</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/category/detail/31, store/category/detail/31, click, 혜택, 필터, 뷰티, 메이크업, iOS</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>109</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>store/myPage</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>pageview</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>channel, page_url, referer_url, page_id, act_type, prd_review_cnt, coupon_cnt, rrpay_point, cart_prd_cnt, like_prd_cnt, like_store_cnt, os_name</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/myPage, https://store.rround.com/main/home, store/myPage, pageview, 0, 0, 51원, 1, 9, 1, iOS</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>110</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>store/order/cart</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>장바구니 아이콘</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>channel, page_url, page_id, act_type, click_text, click_type, os_name</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/order/cart, store/order/cart, click, 2, 장바구니 아이콘, iOS</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>114</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>store/myPage</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>상품</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>비스카 2in1 무선 핸디 스틱 차량용 청소기 BDC-V407C</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>channel, page_url, page_id, act_type, click_text, click_type, area_name, prd_code, prd_name, prd_brand, prd_price_origin, prd_price_final, prd_disc_rate, prd_review_cnt, prd_review_score, prd_is_ad, coupon_cnt, rrpay_point, cart_prd_cnt, like_prd_cnt, like_store_cnt, os_name</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/myPage, store/myPage, click, 비스카 2in1 무선 핸디 스틱 차량용 청소기 BDC-V407C, 상품, 함께 둘러보실래요?, 659, 비스카 2in1 무선 핸디 스틱 차량용 청소기 BDC-V407C, 빅픽처코퍼레이션, 69900원, 37900원, 45%, 5, 4.6, F, 0, 51원, 1, 9, 1, iOS</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>115</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>store/myPage</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>상품 찜하기</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>channel, page_url, page_id, act_type, click_type, area_name, prd_code, prd_name, prd_brand, prd_price_origin, prd_price_final, prd_disc_rate, prd_review_cnt, prd_review_score, prd_is_ad, os_name</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/myPage, store/myPage, click, 상품 찜하기, 함께 둘러보실래요?, 641, 비스카 차량용 유선 핸디청소기 HNZ-CV12, 빅픽처코퍼레이션, 49900원, 20900원, 58%, 3, 5, F, iOS</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>116</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>store/favorite</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>pageview</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>channel, page_url, referer_url, page_id, act_type, tab_name, prd_code, prd_name, prd_price_origin, prd_price_final, prd_disc_rate, os_name</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/favorite?fromMypage=true&amp;tab=goods, https://store.rround.com/myPage, store/favorite, pageview, 찜한 상품
+, 641___2097___5001___4209___4665___2989___6828___8070___5768___8038, 비스카 차량용 유선 핸디청소기 HNZ-CV12___오아 클린벨 차량용 무선 미니 진공 청소기___밀크 바디세트 퍼퓸드 가브리엘 머스크 (바디워시 500g+바디로션 500g)___365 썬BB크림 50ml(1+1)___[에브리워터] 에브리워터 2lx6팩___산지직송 고당도 프리미엄 수박(정품)___[테팔] 에센셜 포켓 드라이기 HV1515___[닥터포헤어] 1+1 바이오3 탈모완화 샴푸 500ml___슈즈랙 신발정리대 20p___바비리스 버터 바 스트레이트너 ST520K, 0___0___0___0___0___0___0___0___0___0, 20900원___46900원___14700원___9900원___3600원___19800원___23000원___28900원___11200원___26000원, 58%___9%___78%___80%___38%___59%___54%___9%___20%___55%, iOS</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>117</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>store/favorite</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>pageview</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>channel, page_url, referer_url, page_id, act_type, tab_name, store_name, os_name</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/favorite?fromMypage=true&amp;tab=goods, https://store.rround.com/favorite, store/favorite, pageview, 찜한 스토어
+, 제이앤스토어, iOS</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>119</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>store/favorite</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>칩버튼</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>마이그룹</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>channel, page_url, page_id, act_type, click_text, click_type, os_name</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/favorite?fromMypage=true&amp;tab=goods, store/favorite, click, 마이그룹, 칩버튼, iOS</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>120</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>store/favorite</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>상품</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>[테팔] 에센셜 포켓 드라이기 HV1515</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>channel, page_url, page_id, act_type, click_text, click_type, prd_code, prd_name, prd_price_origin, prd_price_final, prd_disc_rate, prd_is_ad, os_name</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/favorite?fromMypage=true&amp;tab=goods, store/favorite, click, [테팔] 에센셜 포켓 드라이기 HV1515, 상품, 6828, [테팔] 에센셜 포켓 드라이기 HV1515, 23000원, 54#000원, 54%, F, iOS</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>121</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>store/store/jncorp</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>제이앤스토어</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>channel, page_url, page_id, act_type, click_text, store_id, os_name</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/store/jncorp, store/store/jncorp, click, 제이앤스토어, jncorp, iOS</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>122</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>store/myPage/recentGoods</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>pageview</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>channel, page_url, referer_url, page_id, act_type, prd_code, prd_name, prd_price_origin, prd_price_final, prd_disc_rate, os_name</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/myPage/recentGoods, https://store.rround.com/myPage, store/myPage/recentGoods, pageview, 6828___659___5323___4209___4780___3703___7950___6896___6897, [테팔] 에센셜 포켓 드라이기 HV1515___비스카 2in1 무선 핸디 스틱 차량용 청소기 BDC-V407C___[설수련] 진 한방농축 5종세트___365 썬BB크림 50ml(1+1)___[AHC] 아우라 시크릿 톤업크림 스페셜 기획세트___[동원] 고추참치 150g x 8캔___[산해직송] 꿀단지 수박 고당도 정품 4kg 5kg 외___[비타그램] 말랑말랑 보들 좌욕기 VG-PB0823___[비타그램] 면황토 아로마 냉온 찜질팩 3종세트 (허리/다용도사각/목어깨), 0___0___0___0___0___0___0___0___0, 23000원___37900원___15900원___9900원___21900원___20200원___14900원___9800원___38400원, 54%___45%___83%___80%___31%___9%___62%___51%___23%, iOS</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>123</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>store/myPage/recentGoods</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>상품</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>365 썬BB크림 50ml(1+1)</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>channel, page_url, page_id, act_type, click_text, click_type, area_name, prd_code, prd_name, prd_brand, prd_price_origin, prd_price_final, prd_disc_rate, prd_is_ad, os_name</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/myPage/recentGoods, store/myPage/recentGoods, click, 365 썬BB크림 50ml(1+1), 상품, 2025.06.16, 4209, 365 썬BB크림 50ml(1+1), 타임세일, 9900원, 9900원, 80%, F, iOS</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>124</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>store/myPage/recentGoods</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>상품 찜하기</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>channel, page_url, page_id, act_type, click_type, area_name, prd_code, prd_name, prd_brand, prd_price_origin, prd_price_final, prd_disc_rate, prd_is_ad, os_name</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/myPage/recentGoods, store/myPage/recentGoods, click, 상품 찜하기, 2025.06.16, 5323, [설수련] 진 한방농축 5종세트, 살라망카, 15900원, 15900원, 83%, F, iOS</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>125</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>store/myPage/review</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr"/>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>pageview</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>channel, page_url, referer_url, page_id, act_type, reviewer_name, reviewer_good_cnt, os_name</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/myPage/review, https://store.rround.com/myPage, store/myPage/review, pageview, 라운드8H4FFH, 0, iOS</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>130</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>store/myPage/review/reviewerranking</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>pageview</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>channel, page_url, referer_url, page_id, act_type, os_name</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Rround, https://store.rround.com/myPage/review/reviewerranking, https://store.rround.com/myPage/review, store/myPage/review/reviewerranking, pageview, iOS</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
